--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -531,20 +531,20 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" customWidth="1"/>
     <col min="13" max="14" width="22" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
@@ -818,11 +818,12 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>

--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11652" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Cocomo Effort Estimation" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,23 +648,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -700,23 +683,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,33 +864,33 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="126.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="126.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="24.88671875" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -995,7 +961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1012,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1083,7 +1049,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>31</v>
       </c>
@@ -1106,7 +1072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1095,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>33</v>
       </c>
@@ -1152,7 +1118,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1141,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1201,7 +1167,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1239,7 +1205,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1271,7 +1237,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1303,7 +1269,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1335,7 +1301,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1367,7 +1333,7 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1393,7 +1359,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>5</v>
       </c>
@@ -1461,7 +1427,7 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>76</v>
       </c>
@@ -1484,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>74</v>
       </c>
@@ -1530,7 +1496,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>73</v>
       </c>
@@ -1553,7 +1519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1593,7 +1559,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1619,7 +1585,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1685,7 +1651,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>71</v>
       </c>
@@ -1708,7 +1674,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>70</v>
       </c>
@@ -1731,7 +1697,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1720,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>68</v>
       </c>
@@ -1777,7 +1743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>67</v>
       </c>
@@ -1800,7 +1766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1840,7 +1806,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="17"/>
@@ -1866,7 +1832,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -1899,7 +1865,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -1967,7 +1933,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>64</v>
       </c>
@@ -1990,7 +1956,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +1979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>62</v>
       </c>
@@ -2036,7 +2002,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="D43" s="4"/>
@@ -2075,7 +2041,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="D44" s="17"/>
@@ -2100,7 +2066,7 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2168,7 +2134,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>59</v>
       </c>
@@ -2191,7 +2157,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>58</v>
       </c>
@@ -2214,7 +2180,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>57</v>
       </c>
@@ -2237,7 +2203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
@@ -2276,7 +2242,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="D50" s="17"/>
@@ -2301,7 +2267,7 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2318,7 +2284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +2292,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>53</v>
       </c>
@@ -2334,7 +2300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2342,7 +2308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>51</v>
       </c>
@@ -2350,7 +2316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="D57" s="4"/>
@@ -2392,7 +2358,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="D58" s="17"/>
@@ -2417,7 +2383,7 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2485,7 +2451,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="D60" s="4"/>
@@ -2524,7 +2490,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="D61" s="17"/>
@@ -2549,7 +2515,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>12</v>
       </c>
@@ -2606,7 +2572,7 @@
       </c>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="E63" s="17"/>
@@ -2630,7 +2596,7 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -2698,7 +2664,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>42</v>
       </c>
@@ -2721,7 +2687,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>43</v>
       </c>
@@ -2744,7 +2710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>44</v>
       </c>
@@ -2767,7 +2733,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>45</v>
       </c>
@@ -2790,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>46</v>
       </c>
@@ -2813,8 +2779,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>2</v>
       </c>
@@ -2859,7 +2825,7 @@
       <c r="W71" s="16"/>
       <c r="X71" s="16"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E72" s="19" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +2848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -2891,7 +2857,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>7</v>
       </c>
@@ -2960,7 +2926,7 @@
       </c>
       <c r="X74" s="16"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E75" s="19" t="s">
         <v>101</v>
       </c>
@@ -2983,7 +2949,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E76" s="19" t="s">
         <v>102</v>
       </c>
@@ -3006,7 +2972,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>8</v>
       </c>
@@ -3073,7 +3039,7 @@
       </c>
       <c r="X78" s="16"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E79" s="19" t="s">
         <v>104</v>
       </c>
@@ -3093,7 +3059,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E80" s="19" t="s">
         <v>105</v>
       </c>
@@ -3113,7 +3079,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E81" s="19" t="s">
         <v>106</v>
       </c>
@@ -3133,7 +3099,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E82" s="19" t="s">
         <v>107</v>
       </c>
@@ -3153,7 +3119,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>10</v>
       </c>
@@ -3223,7 +3189,7 @@
       <c r="X84" s="16"/>
       <c r="Y84" s="16"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E85" s="19" t="s">
         <v>110</v>
       </c>
@@ -3246,7 +3212,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E86" s="19" t="s">
         <v>111</v>
       </c>
@@ -3269,7 +3235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E87" s="19" t="s">
         <v>112</v>
       </c>
@@ -3292,7 +3258,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E88" s="19" t="s">
         <v>113</v>
       </c>
@@ -3315,7 +3281,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E89" s="19" t="s">
         <v>114</v>
       </c>
@@ -3338,7 +3304,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>11</v>
       </c>
@@ -3407,7 +3373,7 @@
       </c>
       <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E92" s="19" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3396,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E93" s="19" t="s">
         <v>119</v>
       </c>
@@ -3453,7 +3419,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E94" s="19" t="s">
         <v>120</v>
       </c>
@@ -3476,7 +3442,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E95" s="19" t="s">
         <v>121</v>
       </c>
@@ -3499,7 +3465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E96" s="19" t="s">
         <v>122</v>
       </c>
@@ -3522,7 +3488,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E97" s="19" t="s">
         <v>123</v>
       </c>
@@ -3545,7 +3511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>13</v>
       </c>
@@ -3615,7 +3581,7 @@
       <c r="X99" s="16"/>
       <c r="Y99" s="16"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E100" s="19" t="s">
         <v>126</v>
       </c>
@@ -3638,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E101" s="19" t="s">
         <v>67</v>
       </c>
@@ -3661,7 +3627,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E102" s="19" t="s">
         <v>127</v>
       </c>
@@ -3684,7 +3650,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E103" s="19" t="s">
         <v>128</v>
       </c>
@@ -3707,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>15</v>
       </c>
@@ -3776,7 +3742,7 @@
       </c>
       <c r="X105" s="16"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E106" s="19" t="s">
         <v>67</v>
       </c>
@@ -3799,7 +3765,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E107" s="19" t="s">
         <v>130</v>
       </c>
@@ -3822,7 +3788,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E108" s="19" t="s">
         <v>132</v>
       </c>
@@ -3845,7 +3811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E109" s="19" t="s">
         <v>131</v>
       </c>
@@ -3868,7 +3834,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E110" s="19" t="s">
         <v>133</v>
       </c>
@@ -3904,17 +3870,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3949,7 +3915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3975,7 +3941,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4011,7 +3977,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>39</v>
       </c>

--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11652" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Cocomo Effort Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Estimation Model Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
   <si>
     <t>PROJ</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Schedule Component</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -859,38 +865,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y110"/>
+  <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="126.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="24.88671875" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -961,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -978,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>31</v>
       </c>
@@ -1071,8 +1077,12 @@
       <c r="K4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>L3*152</f>
+        <v>1088.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>33</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1167,7 +1177,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1191,7 +1201,9 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>1193</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1205,7 +1217,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1237,7 +1249,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1269,7 +1281,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1301,7 +1313,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1333,13 +1345,18 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="19">
+        <f>SUM(F17:F21)</f>
+        <v>5400</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -1359,674 +1376,646 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    <row r="23" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+    </row>
+    <row r="24" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>5</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="D23" s="20" t="s">
+      <c r="B25" s="16"/>
+      <c r="D25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F25" s="16">
         <v>100</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G25" s="16">
         <v>0.75</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H25" s="16">
         <v>0.3</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I25" s="16">
         <v>0.2</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J25" s="16">
         <v>439.3</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K25" s="16">
         <v>0</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L25" s="16">
         <v>3.8</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M25" s="16">
         <v>4.5</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N25" s="16">
         <v>465.9</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O25" s="16">
         <v>0.8</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P25" s="16">
         <v>4.8</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q25" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R25" s="16">
         <v>372.8</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S25" s="16">
         <v>1</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T25" s="16">
         <v>6</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U25" s="16">
         <v>5.2</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V25" s="16">
         <v>298.2</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W25" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>100</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>0.63</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <v>0.2</v>
       </c>
-      <c r="J24">
+      <c r="J26">
         <v>525.29999999999995</v>
       </c>
-      <c r="K24">
+      <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+      <c r="L26" s="13">
+        <f>L25*152</f>
+        <v>577.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>315</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <v>0.68</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I27">
         <v>0.7</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <v>483.3</v>
       </c>
-      <c r="K25">
+      <c r="K27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>420</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>0.78</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>1.3</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J28">
         <v>420.4</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>420</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>0.99</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>1.3</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <v>1.3</v>
       </c>
-      <c r="J27">
+      <c r="J29">
         <v>331.9</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F30" s="4">
         <v>420</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G30" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H30" s="4">
         <v>1.3</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I30" s="4">
         <v>1.4</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J30" s="4">
         <v>294.2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K30" s="4">
         <v>0.3</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="17">
+        <f>SUM(F25:F30)</f>
+        <v>1775</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+    </row>
+    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30">
+      <c r="E33" s="13"/>
+      <c r="F33">
         <v>630</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>0.42</v>
       </c>
-      <c r="H30">
+      <c r="H33">
         <v>2.1</v>
       </c>
-      <c r="I30">
+      <c r="I33">
         <v>0.9</v>
       </c>
-      <c r="J30">
+      <c r="J33">
         <v>730.4</v>
-      </c>
-      <c r="K30">
-        <v>0.1</v>
-      </c>
-      <c r="L30">
-        <v>6</v>
-      </c>
-      <c r="M30">
-        <v>6.4</v>
-      </c>
-      <c r="N30">
-        <v>823.3</v>
-      </c>
-      <c r="O30">
-        <v>0.9</v>
-      </c>
-      <c r="P30">
-        <v>7.5</v>
-      </c>
-      <c r="Q30">
-        <v>6.9</v>
-      </c>
-      <c r="R30">
-        <v>658.7</v>
-      </c>
-      <c r="S30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T30">
-        <v>9.4</v>
-      </c>
-      <c r="U30">
-        <v>7.4</v>
-      </c>
-      <c r="V30">
-        <v>526.9</v>
-      </c>
-      <c r="W30">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31">
-        <v>840</v>
-      </c>
-      <c r="G31">
-        <v>0.35</v>
-      </c>
-      <c r="H31">
-        <v>2.7</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>880.9</v>
-      </c>
-      <c r="K31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32">
-        <v>550</v>
-      </c>
-      <c r="G32">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H32">
-        <v>1.8</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>524.6</v>
-      </c>
-      <c r="K32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33">
-        <v>525</v>
-      </c>
-      <c r="G33">
-        <v>0.47</v>
-      </c>
-      <c r="H33">
-        <v>1.7</v>
-      </c>
-      <c r="I33">
-        <v>0.8</v>
-      </c>
-      <c r="J33">
-        <v>655.1</v>
       </c>
       <c r="K33">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>6.4</v>
+      </c>
+      <c r="N33">
+        <v>823.3</v>
+      </c>
+      <c r="O33">
+        <v>0.9</v>
+      </c>
+      <c r="P33">
+        <v>7.5</v>
+      </c>
+      <c r="Q33">
+        <v>6.9</v>
+      </c>
+      <c r="R33">
+        <v>658.7</v>
+      </c>
+      <c r="S33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T33">
+        <v>9.4</v>
+      </c>
+      <c r="U33">
+        <v>7.4</v>
+      </c>
+      <c r="V33">
+        <v>526.9</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34">
-        <v>1050</v>
+        <v>840</v>
       </c>
       <c r="G34">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="H34">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1049.9000000000001</v>
+        <v>880.9</v>
       </c>
       <c r="K34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L34" s="13">
+        <f>L33*152</f>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35">
+        <v>550</v>
+      </c>
+      <c r="G35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H35">
+        <v>1.8</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>524.6</v>
+      </c>
+      <c r="K35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <v>525</v>
+      </c>
+      <c r="G36">
+        <v>0.47</v>
+      </c>
+      <c r="H36">
+        <v>1.7</v>
+      </c>
+      <c r="I36">
+        <v>0.8</v>
+      </c>
+      <c r="J36">
+        <v>655.1</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37">
+        <v>1050</v>
+      </c>
+      <c r="G37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H37">
+        <v>3.4</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
         <v>67</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>330</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>0.35</v>
       </c>
-      <c r="H35">
+      <c r="H38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I35">
+      <c r="I38">
         <v>0.4</v>
       </c>
-      <c r="J35">
+      <c r="J38">
         <v>880.9</v>
       </c>
-      <c r="K35">
+      <c r="K38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F39" s="4">
         <v>1040</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G39" s="4">
         <v>0.73</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H39" s="4">
         <v>3.4</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I39" s="4">
         <v>2.5</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J39" s="4">
         <v>416.4</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K39" s="4">
         <v>0.4</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="4">
+        <f>SUM(F33:F39)</f>
+        <v>4965</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>9</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39">
-        <v>495</v>
-      </c>
-      <c r="G39">
-        <v>0.41</v>
-      </c>
-      <c r="H39">
-        <v>1.69</v>
-      </c>
-      <c r="I39">
-        <v>0.69</v>
-      </c>
-      <c r="J39">
-        <v>722.49</v>
-      </c>
-      <c r="K39">
-        <v>0.1</v>
-      </c>
-      <c r="L39">
-        <v>6.25</v>
-      </c>
-      <c r="M39">
-        <v>6.55</v>
-      </c>
-      <c r="N39">
-        <v>852.27</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>7.82</v>
-      </c>
-      <c r="Q39">
-        <v>7.03</v>
-      </c>
-      <c r="R39">
-        <v>681.81</v>
-      </c>
-      <c r="S39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T39">
-        <v>9.77</v>
-      </c>
-      <c r="U39">
-        <v>7.54</v>
-      </c>
-      <c r="V39">
-        <v>545.45000000000005</v>
-      </c>
-      <c r="W39">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40">
-        <v>2300</v>
-      </c>
-      <c r="G40">
-        <v>0.37</v>
-      </c>
-      <c r="H40">
-        <v>7.85</v>
-      </c>
-      <c r="I40">
-        <v>2.89</v>
-      </c>
-      <c r="J40">
-        <v>794.74</v>
-      </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41">
-        <v>525</v>
-      </c>
-      <c r="G41">
-        <v>0.45</v>
-      </c>
-      <c r="H41">
-        <v>1.79</v>
-      </c>
-      <c r="I41">
-        <v>0.81</v>
-      </c>
-      <c r="J41">
-        <v>644.38</v>
-      </c>
-      <c r="K41">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42">
-        <v>1680</v>
-      </c>
-      <c r="G42">
-        <v>0.52</v>
-      </c>
-      <c r="H42">
-        <v>5.74</v>
-      </c>
-      <c r="I42">
-        <v>2.97</v>
-      </c>
-      <c r="J42">
-        <v>566.28</v>
-      </c>
-      <c r="K42">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="4">
-        <v>330</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="J43" s="4">
-        <v>722.49</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2041,208 +2030,217 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>85</v>
-      </c>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <v>495</v>
+      </c>
+      <c r="G44">
+        <v>0.41</v>
+      </c>
+      <c r="H44">
+        <v>1.69</v>
+      </c>
+      <c r="I44">
+        <v>0.69</v>
+      </c>
+      <c r="J44">
+        <v>722.49</v>
+      </c>
+      <c r="K44">
+        <v>0.1</v>
+      </c>
+      <c r="L44">
+        <v>6.25</v>
+      </c>
+      <c r="M44">
+        <v>6.55</v>
+      </c>
+      <c r="N44">
+        <v>852.27</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>7.82</v>
+      </c>
+      <c r="Q44">
+        <v>7.03</v>
+      </c>
+      <c r="R44">
+        <v>681.81</v>
+      </c>
+      <c r="S44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T44">
+        <v>9.77</v>
+      </c>
+      <c r="U44">
+        <v>7.54</v>
+      </c>
+      <c r="V44">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="W44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F45">
-        <v>263</v>
+        <v>2300</v>
       </c>
       <c r="G45">
+        <v>0.37</v>
+      </c>
+      <c r="H45">
+        <v>7.85</v>
+      </c>
+      <c r="I45">
+        <v>2.89</v>
+      </c>
+      <c r="J45">
+        <v>794.74</v>
+      </c>
+      <c r="K45">
+        <v>0.4</v>
+      </c>
+      <c r="L45" s="13">
+        <f>L44*152</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>525</v>
+      </c>
+      <c r="G46">
+        <v>0.45</v>
+      </c>
+      <c r="H46">
+        <v>1.79</v>
+      </c>
+      <c r="I46">
+        <v>0.81</v>
+      </c>
+      <c r="J46">
+        <v>644.38</v>
+      </c>
+      <c r="K46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47">
+        <v>1680</v>
+      </c>
+      <c r="G47">
         <v>0.52</v>
       </c>
-      <c r="H45">
-        <v>0.8</v>
-      </c>
-      <c r="I45">
-        <v>0.42</v>
-      </c>
-      <c r="J45">
-        <v>633</v>
-      </c>
-      <c r="K45">
+      <c r="H47">
+        <v>5.74</v>
+      </c>
+      <c r="I47">
+        <v>2.97</v>
+      </c>
+      <c r="J47">
+        <v>566.28</v>
+      </c>
+      <c r="K47">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="4">
+        <v>330</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="J48" s="4">
+        <v>722.49</v>
+      </c>
+      <c r="K48" s="4">
         <v>0.1</v>
       </c>
-      <c r="L45">
-        <v>3.56</v>
-      </c>
-      <c r="M45">
-        <v>5.48</v>
-      </c>
-      <c r="N45">
-        <v>391.28</v>
-      </c>
-      <c r="O45">
-        <v>0.6</v>
-      </c>
-      <c r="P45">
-        <v>4.45</v>
-      </c>
-      <c r="Q45">
-        <v>5.88</v>
-      </c>
-      <c r="R45">
-        <v>313.02</v>
-      </c>
-      <c r="S45">
-        <v>0.8</v>
-      </c>
-      <c r="T45">
-        <v>5.56</v>
-      </c>
-      <c r="U45">
-        <v>6.31</v>
-      </c>
-      <c r="V45">
-        <v>250.42</v>
-      </c>
-      <c r="W45">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46">
-        <v>360</v>
-      </c>
-      <c r="G46">
-        <v>0.89</v>
-      </c>
-      <c r="H46">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I46">
-        <v>0.97</v>
-      </c>
-      <c r="J46">
-        <v>370</v>
-      </c>
-      <c r="K46">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47">
-        <v>330</v>
-      </c>
-      <c r="G47">
-        <v>1.35</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1.35</v>
-      </c>
-      <c r="J47">
-        <v>244</v>
-      </c>
-      <c r="K47">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48">
-        <v>385</v>
-      </c>
-      <c r="G48">
-        <v>1.32</v>
-      </c>
-      <c r="H48">
-        <v>1.17</v>
-      </c>
-      <c r="I48">
-        <v>1.53</v>
-      </c>
-      <c r="J48">
-        <v>250</v>
-      </c>
-      <c r="K48">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="4">
-        <v>55</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="J49" s="4">
-        <v>303</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-    </row>
-    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="17">
+        <f>SUM(F44:F48)</f>
+        <v>5330</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+    </row>
+    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="D50" s="17"/>
@@ -2267,1593 +2265,1989 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>263</v>
+      </c>
+      <c r="G51">
+        <v>0.52</v>
+      </c>
+      <c r="H51">
+        <v>0.8</v>
+      </c>
+      <c r="I51">
+        <v>0.42</v>
+      </c>
+      <c r="J51">
+        <v>633</v>
+      </c>
+      <c r="K51">
+        <v>0.1</v>
+      </c>
+      <c r="L51">
+        <v>3.56</v>
+      </c>
+      <c r="M51">
+        <v>5.48</v>
+      </c>
+      <c r="N51">
+        <v>391.28</v>
+      </c>
+      <c r="O51">
+        <v>0.6</v>
+      </c>
+      <c r="P51">
+        <v>4.45</v>
+      </c>
+      <c r="Q51">
+        <v>5.88</v>
+      </c>
+      <c r="R51">
+        <v>313.02</v>
+      </c>
+      <c r="S51">
+        <v>0.8</v>
+      </c>
+      <c r="T51">
+        <v>5.56</v>
+      </c>
+      <c r="U51">
+        <v>6.31</v>
+      </c>
+      <c r="V51">
+        <v>250.42</v>
+      </c>
+      <c r="W51">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>360</v>
+      </c>
+      <c r="G52">
+        <v>0.89</v>
+      </c>
+      <c r="H52">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.97</v>
+      </c>
+      <c r="J52">
+        <v>370</v>
+      </c>
+      <c r="K52">
+        <v>0.2</v>
+      </c>
+      <c r="L52" s="13">
+        <f>L51*152</f>
+        <v>541.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>330</v>
+      </c>
+      <c r="G53">
+        <v>1.35</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1.35</v>
+      </c>
+      <c r="J53">
+        <v>244</v>
+      </c>
+      <c r="K53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54">
+        <v>385</v>
+      </c>
+      <c r="G54">
+        <v>1.32</v>
+      </c>
+      <c r="H54">
+        <v>1.17</v>
+      </c>
+      <c r="I54">
+        <v>1.53</v>
+      </c>
+      <c r="J54">
+        <v>250</v>
+      </c>
+      <c r="K54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="4">
+        <v>55</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="J55" s="4">
+        <v>303</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="17">
+        <f>SUM(F51:F55)</f>
+        <v>1393</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+    </row>
+    <row r="57" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B58" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E58" t="s">
         <v>55</v>
       </c>
-      <c r="F51">
+      <c r="F58">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+      <c r="L58">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>54</v>
       </c>
-      <c r="F52">
+      <c r="F59">
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
         <v>53</v>
       </c>
-      <c r="F53">
+      <c r="F60">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
         <v>52</v>
       </c>
-      <c r="F54">
+      <c r="F61">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
         <v>51</v>
       </c>
-      <c r="F55">
+      <c r="F62">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
         <v>50</v>
       </c>
-      <c r="F56">
+      <c r="F63">
         <v>408</v>
       </c>
-      <c r="K56">
+      <c r="K63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F64" s="4">
         <v>354</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4">
         <v>0.3</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-    </row>
-    <row r="58" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="17">
+        <f>SUM(F58:F64)</f>
+        <v>2042</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+    </row>
+    <row r="66" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+    </row>
+    <row r="67" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B68" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E68" t="s">
         <v>48</v>
       </c>
-      <c r="F59">
+      <c r="F68">
         <v>1050</v>
       </c>
-      <c r="G59">
+      <c r="G68">
         <v>0.42</v>
       </c>
-      <c r="H59">
+      <c r="H68">
         <v>3.2</v>
       </c>
-      <c r="I59">
+      <c r="I68">
         <v>1.33</v>
       </c>
-      <c r="J59">
+      <c r="J68">
         <v>789.96</v>
       </c>
-      <c r="K59">
+      <c r="K68">
         <v>0.3</v>
       </c>
-      <c r="L59">
+      <c r="L68">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M59">
+      <c r="M68">
         <v>4.8899999999999997</v>
       </c>
-      <c r="N59">
+      <c r="N68">
         <v>790.7</v>
       </c>
-      <c r="O59">
+      <c r="O68">
         <v>0.5</v>
       </c>
-      <c r="P59">
+      <c r="P68">
         <v>3.17</v>
       </c>
-      <c r="Q59">
+      <c r="Q68">
         <v>5.24</v>
       </c>
-      <c r="R59">
+      <c r="R68">
         <v>632.55999999999995</v>
       </c>
-      <c r="S59">
+      <c r="S68">
         <v>0.6</v>
       </c>
-      <c r="T59">
+      <c r="T68">
         <v>3.96</v>
       </c>
-      <c r="U59">
+      <c r="U68">
         <v>5.61</v>
       </c>
-      <c r="V59">
+      <c r="V68">
         <v>506.05</v>
       </c>
-      <c r="W59">
+      <c r="W68">
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F69" s="4">
         <v>954</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G69" s="4">
         <v>0.63</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H69" s="4">
         <v>2.91</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I69" s="4">
         <v>1.84</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J69" s="4">
         <v>518.79</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K69" s="4">
         <v>0.4</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-    </row>
-    <row r="61" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="L69" s="13">
+        <f>L68*152</f>
+        <v>384.55999999999995</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="4">
+        <f>SUM(F68:F69)</f>
+        <v>2004</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>54.11</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M72" s="4">
         <v>12.68</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N72" s="4">
         <v>333.37</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O72" s="4">
         <v>4.3</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P72" s="4">
         <v>67.64</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="Q72" s="4">
         <v>13.6</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R72" s="4">
         <v>266.7</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S72" s="4">
         <v>5</v>
       </c>
-      <c r="T62" s="4">
+      <c r="T72" s="4">
         <v>84.55</v>
       </c>
-      <c r="U62" s="4">
+      <c r="U72" s="4">
         <v>14.57</v>
       </c>
-      <c r="V62" s="4">
+      <c r="V72" s="4">
         <v>213.36</v>
       </c>
-      <c r="W62" s="4">
+      <c r="W72" s="4">
         <v>5.8</v>
       </c>
-      <c r="X62" s="4"/>
-    </row>
-    <row r="63" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+    </row>
+    <row r="74" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="13">
+        <f>L72*152</f>
+        <v>8224.7199999999993</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>16</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B75" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E75" t="s">
         <v>41</v>
       </c>
-      <c r="F64">
+      <c r="F75">
         <v>1428</v>
       </c>
-      <c r="G64">
+      <c r="G75">
         <v>1.17</v>
       </c>
-      <c r="H64">
+      <c r="H75">
         <v>4.67</v>
       </c>
-      <c r="I64">
+      <c r="I75">
         <v>5.46</v>
       </c>
-      <c r="J64">
+      <c r="J75">
         <v>261.57</v>
       </c>
-      <c r="K64">
+      <c r="K75">
         <v>0.7</v>
       </c>
-      <c r="L64">
+      <c r="L75">
         <v>9.91</v>
       </c>
-      <c r="M64">
+      <c r="M75">
         <v>7.58</v>
       </c>
-      <c r="N64">
+      <c r="N75">
         <v>327.68</v>
       </c>
-      <c r="O64">
+      <c r="O75">
         <v>1.3</v>
       </c>
-      <c r="P64">
+      <c r="P75">
         <v>12.39</v>
       </c>
-      <c r="Q64">
+      <c r="Q75">
         <v>8.1300000000000008</v>
       </c>
-      <c r="R64">
+      <c r="R75">
         <v>262.14</v>
       </c>
-      <c r="S64">
+      <c r="S75">
         <v>1.5</v>
       </c>
-      <c r="T64">
+      <c r="T75">
         <v>15.48</v>
       </c>
-      <c r="U64">
+      <c r="U75">
         <v>8.73</v>
       </c>
-      <c r="V64">
+      <c r="V75">
         <v>209.71</v>
       </c>
-      <c r="W64">
+      <c r="W75">
         <v>1.8</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
         <v>42</v>
       </c>
-      <c r="F65">
+      <c r="F76">
         <v>406</v>
       </c>
-      <c r="G65">
+      <c r="G76">
         <v>1.37</v>
       </c>
-      <c r="H65">
+      <c r="H76">
         <v>1.33</v>
       </c>
-      <c r="I65">
+      <c r="I76">
         <v>1.82</v>
       </c>
-      <c r="J65">
+      <c r="J76">
         <v>223.57</v>
       </c>
-      <c r="K65">
+      <c r="K76">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
+      <c r="L76" s="13">
+        <f>L75*152</f>
+        <v>1506.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
         <v>43</v>
       </c>
-      <c r="F66">
+      <c r="F77">
         <v>203</v>
       </c>
-      <c r="G66">
+      <c r="G77">
         <v>1.2</v>
       </c>
-      <c r="H66">
+      <c r="H77">
         <v>0.66</v>
       </c>
-      <c r="I66">
+      <c r="I77">
         <v>0.79</v>
       </c>
-      <c r="J66">
+      <c r="J77">
         <v>255.69</v>
       </c>
-      <c r="K66">
+      <c r="K77">
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
         <v>44</v>
       </c>
-      <c r="F67">
+      <c r="F78">
         <v>304</v>
       </c>
-      <c r="G67">
+      <c r="G78">
         <v>1.17</v>
       </c>
-      <c r="H67">
+      <c r="H78">
         <v>0.99</v>
       </c>
-      <c r="I67">
+      <c r="I78">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J67">
+      <c r="J78">
         <v>261.57</v>
       </c>
-      <c r="K67">
+      <c r="K78">
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
         <v>45</v>
       </c>
-      <c r="F68">
+      <c r="F79">
         <v>101</v>
       </c>
-      <c r="G68">
+      <c r="G79">
         <v>1.2</v>
       </c>
-      <c r="H68">
+      <c r="H79">
         <v>0.33</v>
       </c>
-      <c r="I68">
+      <c r="I79">
         <v>0.4</v>
       </c>
-      <c r="J68">
+      <c r="J79">
         <v>255.69</v>
       </c>
-      <c r="K68">
+      <c r="K79">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
         <v>46</v>
       </c>
-      <c r="F69">
+      <c r="F80">
         <v>805</v>
       </c>
-      <c r="G69">
+      <c r="G80">
         <v>1.05</v>
       </c>
-      <c r="H69">
+      <c r="H80">
         <v>2.63</v>
       </c>
-      <c r="I69">
+      <c r="I80">
         <v>2.76</v>
       </c>
-      <c r="J69">
+      <c r="J80">
         <v>291.68</v>
       </c>
-      <c r="K69">
+      <c r="K80">
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+    <row r="81" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
         <v>2</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B82" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D82" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F82" s="16">
         <v>3200</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G82" s="16">
         <v>0.24</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H82" s="16">
         <v>10.63</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I82" s="16">
         <v>2.52</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J82" s="16">
         <v>12</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K82" s="16">
         <v>0.4</v>
       </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E72" s="19" t="s">
+      <c r="L82" s="16">
+        <v>1328</v>
+      </c>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+    </row>
+    <row r="83" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F83" s="19">
         <v>3000</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G83" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H83" s="19">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I83" s="19">
         <v>2.89</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J83" s="19">
         <v>10</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K83" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+    <row r="84" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="19">
+        <f>SUM(F82:F83)</f>
+        <v>6200</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+    </row>
+    <row r="85" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86" s="16">
         <v>7</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B86" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D86" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F86" s="16">
         <v>220</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G86" s="16">
         <v>0.63</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H86" s="16">
         <v>0.72</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I86" s="16">
         <v>0.45</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J86" s="16">
         <v>485</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K86" s="16">
         <v>0.1</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L86" s="16">
         <v>6.88</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M86" s="16">
         <v>6.72</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N86" s="16">
         <v>551.77</v>
       </c>
-      <c r="O74" s="16">
+      <c r="O86" s="16">
         <v>1</v>
       </c>
-      <c r="P74" s="16">
+      <c r="P86" s="16">
         <v>8.6</v>
       </c>
-      <c r="Q74" s="16">
+      <c r="Q86" s="16">
         <v>7.21</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R86" s="16">
         <v>441.41</v>
       </c>
-      <c r="S74" s="16">
+      <c r="S86" s="16">
         <v>1.2</v>
       </c>
-      <c r="T74" s="16">
+      <c r="T86" s="16">
         <v>10.75</v>
       </c>
-      <c r="U74" s="16">
+      <c r="U86" s="16">
         <v>7.73</v>
       </c>
-      <c r="V74" s="16">
+      <c r="V86" s="16">
         <v>353.3</v>
       </c>
-      <c r="W74" s="16">
+      <c r="W86" s="16">
         <v>1.4</v>
       </c>
-      <c r="X74" s="16"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E75" s="19" t="s">
+      <c r="X86" s="16"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E87" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F87" s="19">
         <v>2750</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G87" s="19">
         <v>0.63</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H87" s="19">
         <v>8.98</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I87" s="19">
         <v>5.63</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J87" s="19">
         <v>488</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K87" s="19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E76" s="19" t="s">
+      <c r="L87" s="13">
+        <f>L86*152</f>
+        <v>1045.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E88" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F88" s="19">
         <v>825</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G88" s="19">
         <v>0.94</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H88" s="19">
         <v>2.69</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I88" s="19">
         <v>2.52</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J88" s="19">
         <v>327</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K88" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
         <v>8</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B90" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D90" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F90" s="16">
         <v>350</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G90" s="16">
         <v>1.39</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H90" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I90" s="16">
         <v>1.6</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J90" s="16">
         <v>218</v>
       </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16">
+      <c r="K90" s="16"/>
+      <c r="L90" s="16">
         <v>11.91</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M90" s="16">
         <v>8.08</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N90" s="16">
         <v>251.87</v>
       </c>
-      <c r="O78" s="16">
+      <c r="O90" s="16">
         <v>1.5</v>
       </c>
-      <c r="P78" s="16">
+      <c r="P90" s="16">
         <v>14.89</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q90" s="16">
         <v>8.67</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R90" s="16">
         <v>201.5</v>
       </c>
-      <c r="S78" s="16">
+      <c r="S90" s="16">
         <v>1.7</v>
       </c>
-      <c r="T78" s="16">
+      <c r="T90" s="16">
         <v>18.61</v>
       </c>
-      <c r="U78" s="16">
+      <c r="U90" s="16">
         <v>9.31</v>
       </c>
-      <c r="V78" s="16">
+      <c r="V90" s="16">
         <v>161.19999999999999</v>
       </c>
-      <c r="W78" s="16">
+      <c r="W90" s="16">
         <v>2</v>
       </c>
-      <c r="X78" s="16"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E79" s="19" t="s">
+      <c r="X90" s="16"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E91" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F91" s="19">
         <v>1100</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G91" s="19">
         <v>1.94</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H91" s="19">
         <v>3.62</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I91" s="19">
         <v>7.04</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J91" s="19">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E80" s="19" t="s">
+      <c r="L91" s="13">
+        <f>L90*152</f>
+        <v>1810.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E92" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F92" s="19">
         <v>500</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G92" s="19">
         <v>1.39</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H92" s="19">
         <v>1.64</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I92" s="19">
         <v>2.29</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J92" s="19">
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E81" s="19" t="s">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E93" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F93" s="19">
         <v>350</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G93" s="19">
         <v>1.26</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H93" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I93" s="19">
         <v>1.45</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J93" s="19">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E82" s="19" t="s">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E94" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F94" s="19">
         <v>700</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G94" s="19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H94" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I94" s="19">
         <v>2.52</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J94" s="19">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="16">
         <v>10</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D96" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E96" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F96" s="16">
         <v>69</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G96" s="16">
         <v>0.17</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H96" s="16">
         <v>0.24</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I96" s="16">
         <v>0.04</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J96" s="16">
         <v>166</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K96" s="16">
         <v>0</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L96" s="16">
         <v>9.17</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M96" s="16">
         <v>7.38</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N96" s="16">
         <v>847.76</v>
       </c>
-      <c r="O84" s="16">
+      <c r="O96" s="16">
         <v>1.2</v>
       </c>
-      <c r="P84" s="16">
+      <c r="P96" s="16">
         <v>11.47</v>
       </c>
-      <c r="Q84" s="16">
+      <c r="Q96" s="16">
         <v>7.92</v>
       </c>
-      <c r="R84" s="16">
+      <c r="R96" s="16">
         <v>678.21</v>
       </c>
-      <c r="S84" s="16">
+      <c r="S96" s="16">
         <v>1.4</v>
       </c>
-      <c r="T84" s="16">
+      <c r="T96" s="16">
         <v>14.33</v>
       </c>
-      <c r="U84" s="16">
+      <c r="U96" s="16">
         <v>8.5</v>
       </c>
-      <c r="V84" s="16">
+      <c r="V96" s="16">
         <v>542.55999999999995</v>
       </c>
-      <c r="W84" s="16">
+      <c r="W96" s="16">
         <v>1.7</v>
       </c>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E85" s="19" t="s">
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E97" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F97" s="19">
         <v>861</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G97" s="19">
         <v>0.15</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H97" s="19">
         <v>3.02</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I97" s="19">
         <v>0.45</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J97" s="19">
         <v>189</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K97" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E86" s="19" t="s">
+      <c r="L97" s="13">
+        <f>L96*152</f>
+        <v>1393.84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E98" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F98" s="19">
         <v>630</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G98" s="19">
         <v>0.19</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H98" s="19">
         <v>2.21</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I98" s="19">
         <v>0.41</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J98" s="19">
         <v>153</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K98" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E87" s="19" t="s">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E99" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F99" s="19">
         <v>1725</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G99" s="19">
         <v>0.77</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H99" s="19">
         <v>6.05</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I99" s="19">
         <v>4.68</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J99" s="19">
         <v>368.58</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K99" s="19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E88" s="19" t="s">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E100" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F100" s="19">
         <v>2136</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G100" s="19">
         <v>0.37</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H100" s="19">
         <v>7.5</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I100" s="19">
         <v>2.8</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J100" s="19">
         <v>763.74</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K100" s="19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E89" s="19" t="s">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E101" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F101" s="19">
         <v>2355</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G101" s="19">
         <v>0.37</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H101" s="19">
         <v>8.27</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I101" s="19">
         <v>3.08</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J101" s="19">
         <v>763.74</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K101" s="19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103" s="16">
         <v>11</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B103" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D103" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E103" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F103" s="16">
         <v>525</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G103" s="16">
         <v>0.7</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H103" s="16">
         <v>1.71</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I103" s="16">
         <v>1.2</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J103" s="16">
         <v>436.25</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K103" s="16">
         <v>0.2</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L103" s="16">
         <v>7.19</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M103" s="16">
         <v>6.8</v>
       </c>
-      <c r="N91" s="16">
+      <c r="N103" s="16">
         <v>569.52</v>
       </c>
-      <c r="O91" s="16">
+      <c r="O103" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P91" s="16">
+      <c r="P103" s="16">
         <v>8.99</v>
       </c>
-      <c r="Q91" s="16">
+      <c r="Q103" s="16">
         <v>7.3</v>
       </c>
-      <c r="R91" s="16">
+      <c r="R103" s="16">
         <v>455.62</v>
       </c>
-      <c r="S91" s="16">
+      <c r="S103" s="16">
         <v>1.2</v>
       </c>
-      <c r="T91" s="16">
+      <c r="T103" s="16">
         <v>11.23</v>
       </c>
-      <c r="U91" s="16">
+      <c r="U103" s="16">
         <v>7.82</v>
       </c>
-      <c r="V91" s="16">
+      <c r="V103" s="16">
         <v>364.49</v>
       </c>
-      <c r="W91" s="16">
+      <c r="W103" s="16">
         <v>1.4</v>
       </c>
-      <c r="X91" s="16"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E92" s="19" t="s">
+      <c r="X103" s="16"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E104" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F104" s="19">
         <v>550</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G104" s="19">
         <v>0.64</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H104" s="19">
         <v>1.8</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I104" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J104" s="19">
         <v>479.88</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K104" s="19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E93" s="19" t="s">
+      <c r="L104" s="13">
+        <f>L103*152</f>
+        <v>1092.8800000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E105" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F105" s="19">
         <v>420</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G105" s="19">
         <v>0.7</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H105" s="19">
         <v>1.37</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I105" s="19">
         <v>0.96</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J105" s="19">
         <v>436.25</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K105" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="19" t="s">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E106" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F106" s="19">
         <v>840</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G106" s="19">
         <v>0.7</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H106" s="19">
         <v>2.74</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I106" s="19">
         <v>1.93</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J106" s="19">
         <v>436.25</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E95" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F95" s="19">
-        <v>330</v>
-      </c>
-      <c r="G95" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="H95" s="19">
-        <v>1.08</v>
-      </c>
-      <c r="I95" s="19">
-        <v>0.76</v>
-      </c>
-      <c r="J95" s="19">
-        <v>436.25</v>
-      </c>
-      <c r="K95" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E96" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="19">
-        <v>550</v>
-      </c>
-      <c r="G96" s="19">
-        <v>0.59</v>
-      </c>
-      <c r="H96" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="I96" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="J96" s="19">
-        <v>521.61</v>
-      </c>
-      <c r="K96" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E97" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F97" s="19">
-        <v>880</v>
-      </c>
-      <c r="G97" s="19">
-        <v>0.67</v>
-      </c>
-      <c r="H97" s="19">
-        <v>2.87</v>
-      </c>
-      <c r="I97" s="19">
-        <v>1.94</v>
-      </c>
-      <c r="J97" s="19">
-        <v>453.8</v>
-      </c>
-      <c r="K97" s="19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
-        <v>13</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" s="16">
-        <v>308</v>
-      </c>
-      <c r="G99" s="16">
-        <v>1.08</v>
-      </c>
-      <c r="H99" s="16">
-        <v>0.96</v>
-      </c>
-      <c r="I99" s="16">
-        <v>1.04</v>
-      </c>
-      <c r="J99" s="16">
-        <v>294</v>
-      </c>
-      <c r="K99" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L99" s="16">
-        <v>11.46</v>
-      </c>
-      <c r="M99" s="16">
-        <v>5.23</v>
-      </c>
-      <c r="N99" s="16">
-        <v>305.94</v>
-      </c>
-      <c r="O99" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P99" s="16">
-        <v>14.33</v>
-      </c>
-      <c r="Q99" s="16">
-        <v>5.6</v>
-      </c>
-      <c r="R99" s="16">
-        <v>244.75</v>
-      </c>
-      <c r="S99" s="16">
-        <v>2.6</v>
-      </c>
-      <c r="T99" s="16">
-        <v>17.91</v>
-      </c>
-      <c r="U99" s="16">
-        <v>6</v>
-      </c>
-      <c r="V99" s="16">
-        <v>195.8</v>
-      </c>
-      <c r="W99" s="16">
-        <v>3</v>
-      </c>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E100" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" s="19">
-        <v>1188</v>
-      </c>
-      <c r="G100" s="19">
-        <v>1.45</v>
-      </c>
-      <c r="H100" s="19">
-        <v>3.72</v>
-      </c>
-      <c r="I100" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="J100" s="19">
-        <v>220</v>
-      </c>
-      <c r="K100" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E101" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F101" s="19">
-        <v>420</v>
-      </c>
-      <c r="G101" s="19">
-        <v>0.94</v>
-      </c>
-      <c r="H101" s="19">
-        <v>1.32</v>
-      </c>
-      <c r="I101" s="19">
-        <v>1.24</v>
-      </c>
-      <c r="J101" s="19">
-        <v>338</v>
-      </c>
-      <c r="K101" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E102" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F102" s="19">
-        <v>315</v>
-      </c>
-      <c r="G102" s="19">
-        <v>0.94</v>
-      </c>
-      <c r="H102" s="19">
-        <v>0.99</v>
-      </c>
-      <c r="I102" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="J102" s="19">
-        <v>338</v>
-      </c>
-      <c r="K102" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E103" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F103" s="19">
-        <v>1276</v>
-      </c>
-      <c r="G103" s="19">
-        <v>1.43</v>
-      </c>
-      <c r="H103" s="19">
-        <v>4</v>
-      </c>
-      <c r="I103" s="19">
-        <v>5.71</v>
-      </c>
-      <c r="J103" s="19">
-        <v>223</v>
-      </c>
-      <c r="K103" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
-        <v>15</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F105" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G105" s="16">
-        <v>0.97</v>
-      </c>
-      <c r="H105" s="16">
-        <v>3.37</v>
-      </c>
-      <c r="I105" s="16">
-        <v>3.27</v>
-      </c>
-      <c r="J105" s="16">
-        <v>305.76</v>
-      </c>
-      <c r="K105" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="L105" s="16">
-        <v>8.52</v>
-      </c>
-      <c r="M105" s="16">
-        <v>7.27</v>
-      </c>
-      <c r="N105" s="16">
-        <v>422.36</v>
-      </c>
-      <c r="O105" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="P105" s="16">
-        <v>10.65</v>
-      </c>
-      <c r="Q105" s="16">
-        <v>7.81</v>
-      </c>
-      <c r="R105" s="16">
-        <v>337.89</v>
-      </c>
-      <c r="S105" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="T105" s="16">
-        <v>13.32</v>
-      </c>
-      <c r="U105" s="16">
-        <v>8.39</v>
-      </c>
-      <c r="V105" s="16">
-        <v>270.31</v>
-      </c>
-      <c r="W105" s="16">
-        <v>1.6</v>
-      </c>
-      <c r="X105" s="16"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E106" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F106" s="19">
-        <v>400</v>
-      </c>
-      <c r="G106" s="19">
-        <v>0.91</v>
-      </c>
-      <c r="H106" s="19">
-        <v>1.35</v>
-      </c>
-      <c r="I106" s="19">
-        <v>1.23</v>
-      </c>
-      <c r="J106" s="19">
-        <v>325.22000000000003</v>
       </c>
       <c r="K106" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E107" s="19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F107" s="19">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="G107" s="19">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
       <c r="H107" s="19">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="I107" s="19">
-        <v>2.0699999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="J107" s="19">
-        <v>241.39</v>
+        <v>436.25</v>
       </c>
       <c r="K107" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E108" s="19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F108" s="19">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="G108" s="19">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="H108" s="19">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="I108" s="19">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="J108" s="19">
-        <v>446.95</v>
+        <v>521.61</v>
       </c>
       <c r="K108" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E109" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="19">
+        <v>880</v>
+      </c>
+      <c r="G109" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="H109" s="19">
+        <v>2.87</v>
+      </c>
+      <c r="I109" s="19">
+        <v>1.94</v>
+      </c>
+      <c r="J109" s="19">
+        <v>453.8</v>
+      </c>
+      <c r="K109" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A111" s="16">
+        <v>13</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="16">
+        <v>308</v>
+      </c>
+      <c r="G111" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="H111" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="I111" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="J111" s="16">
+        <v>294</v>
+      </c>
+      <c r="K111" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L111" s="16">
+        <v>11.46</v>
+      </c>
+      <c r="M111" s="16">
+        <v>5.23</v>
+      </c>
+      <c r="N111" s="16">
+        <v>305.94</v>
+      </c>
+      <c r="O111" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P111" s="16">
+        <v>14.33</v>
+      </c>
+      <c r="Q111" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="R111" s="16">
+        <v>244.75</v>
+      </c>
+      <c r="S111" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="T111" s="16">
+        <v>17.91</v>
+      </c>
+      <c r="U111" s="16">
+        <v>6</v>
+      </c>
+      <c r="V111" s="16">
+        <v>195.8</v>
+      </c>
+      <c r="W111" s="16">
+        <v>3</v>
+      </c>
+      <c r="X111" s="16"/>
+      <c r="Y111" s="16"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E112" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="19">
+        <v>1188</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1.45</v>
+      </c>
+      <c r="H112" s="19">
+        <v>3.72</v>
+      </c>
+      <c r="I112" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="J112" s="19">
+        <v>220</v>
+      </c>
+      <c r="K112" s="19">
+        <v>1</v>
+      </c>
+      <c r="L112" s="13">
+        <f>L111*152</f>
+        <v>1741.92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E113" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="19">
+        <v>420</v>
+      </c>
+      <c r="G113" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="H113" s="19">
+        <v>1.32</v>
+      </c>
+      <c r="I113" s="19">
+        <v>1.24</v>
+      </c>
+      <c r="J113" s="19">
+        <v>338</v>
+      </c>
+      <c r="K113" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E114" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="19">
+        <v>315</v>
+      </c>
+      <c r="G114" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="H114" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="I114" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="J114" s="19">
+        <v>338</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E115" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F115" s="19">
+        <v>1276</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1.43</v>
+      </c>
+      <c r="H115" s="19">
+        <v>4</v>
+      </c>
+      <c r="I115" s="19">
+        <v>5.71</v>
+      </c>
+      <c r="J115" s="19">
+        <v>223</v>
+      </c>
+      <c r="K115" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A117" s="16">
+        <v>15</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G117" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="H117" s="16">
+        <v>3.37</v>
+      </c>
+      <c r="I117" s="16">
+        <v>3.27</v>
+      </c>
+      <c r="J117" s="16">
+        <v>305.76</v>
+      </c>
+      <c r="K117" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="L117" s="16">
+        <v>8.52</v>
+      </c>
+      <c r="M117" s="16">
+        <v>7.27</v>
+      </c>
+      <c r="N117" s="16">
+        <v>422.36</v>
+      </c>
+      <c r="O117" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="P117" s="16">
+        <v>10.65</v>
+      </c>
+      <c r="Q117" s="16">
+        <v>7.81</v>
+      </c>
+      <c r="R117" s="16">
+        <v>337.89</v>
+      </c>
+      <c r="S117" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="T117" s="16">
+        <v>13.32</v>
+      </c>
+      <c r="U117" s="16">
+        <v>8.39</v>
+      </c>
+      <c r="V117" s="16">
+        <v>270.31</v>
+      </c>
+      <c r="W117" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="X117" s="16"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E118" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="19">
+        <v>400</v>
+      </c>
+      <c r="G118" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="H118" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="I118" s="19">
+        <v>1.23</v>
+      </c>
+      <c r="J118" s="19">
+        <v>325.22000000000003</v>
+      </c>
+      <c r="K118" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="L118" s="13">
+        <f>L117*152</f>
+        <v>1295.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E119" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F119" s="19">
+        <v>500</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1.23</v>
+      </c>
+      <c r="H119" s="19">
+        <v>1.69</v>
+      </c>
+      <c r="I119" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J119" s="19">
+        <v>241.39</v>
+      </c>
+      <c r="K119" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E120" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="19">
+        <v>400</v>
+      </c>
+      <c r="G120" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="H120" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="I120" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="J120" s="19">
+        <v>446.95</v>
+      </c>
+      <c r="K120" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E121" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F121" s="19">
         <v>700</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G121" s="19">
         <v>0.66</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H121" s="19">
         <v>2.36</v>
       </c>
-      <c r="I109" s="19">
+      <c r="I121" s="19">
         <v>1.57</v>
       </c>
-      <c r="J109" s="19">
+      <c r="J121" s="19">
         <v>446.95</v>
       </c>
-      <c r="K109" s="19">
+      <c r="K121" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E110" s="19" t="s">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E122" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F122" s="19">
         <v>600</v>
       </c>
-      <c r="G110" s="19">
+      <c r="G122" s="19">
         <v>0.8</v>
       </c>
-      <c r="H110" s="19">
+      <c r="H122" s="19">
         <v>2.02</v>
       </c>
-      <c r="I110" s="19">
+      <c r="I122" s="19">
         <v>1.62</v>
       </c>
-      <c r="J110" s="19">
+      <c r="J122" s="19">
         <v>370.07</v>
       </c>
-      <c r="K110" s="19">
+      <c r="K122" s="19">
         <v>0.2</v>
       </c>
     </row>
@@ -3870,17 +4264,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3915,7 +4309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3941,7 +4335,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3977,7 +4371,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>39</v>
       </c>

--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -870,7 +870,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11652" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Cocomo Effort Estimation" sheetId="1" r:id="rId1"/>
@@ -865,38 +865,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y122"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="126.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="24.88671875" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1088.32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1177,7 +1177,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1249,7 +1249,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1281,7 +1281,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1313,7 +1313,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1345,7 +1345,7 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1376,7 +1376,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1402,7 +1402,7 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1428,7 +1428,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>5</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>76</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>577.6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>74</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>73</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1632,7 +1632,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1663,7 +1663,7 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
     </row>
-    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1689,7 +1689,7 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>70</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>69</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>68</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>67</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1914,7 +1914,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="17"/>
@@ -1945,7 +1945,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="17"/>
@@ -1971,7 +1971,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="17"/>
@@ -1997,7 +1997,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>9</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>64</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>63</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
@@ -2210,7 +2210,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="D49" s="17"/>
@@ -2240,7 +2240,7 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
     </row>
-    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="D50" s="17"/>
@@ -2265,7 +2265,7 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>541.12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>58</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>57</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="D55" s="4"/>
@@ -2445,7 +2445,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="D56" s="17"/>
@@ -2475,7 +2475,7 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
     </row>
-    <row r="57" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="D57" s="17"/>
@@ -2500,7 +2500,7 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>53</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>52</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>51</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>50</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="D64" s="4"/>
@@ -2594,7 +2594,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="D65" s="17"/>
@@ -2624,7 +2624,7 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="D66" s="17"/>
@@ -2649,7 +2649,7 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="D67" s="17"/>
@@ -2674,7 +2674,7 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="D69" s="4"/>
@@ -2784,7 +2784,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="D70" s="17"/>
@@ -2813,7 +2813,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="D71" s="17"/>
@@ -2838,7 +2838,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>12</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="E73" s="17"/>
@@ -2919,7 +2919,7 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="E74" s="17"/>
@@ -2946,7 +2946,7 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>42</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1506.32</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>43</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>44</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>45</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>46</v>
       </c>
@@ -3133,8 +3133,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>2</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="W82" s="16"/>
       <c r="X82" s="16"/>
     </row>
-    <row r="83" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E83" s="19" t="s">
         <v>98</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84" s="19" t="s">
         <v>135</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
@@ -3227,7 +3227,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>7</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="X86" s="16"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E87" s="19" t="s">
         <v>101</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>1045.76</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E88" s="19" t="s">
         <v>102</v>
       </c>
@@ -3346,7 +3346,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f>SUM(F86:F88)</f>
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>8</v>
       </c>
@@ -3413,7 +3419,7 @@
       </c>
       <c r="X90" s="16"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E91" s="19" t="s">
         <v>104</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>1810.32</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E92" s="19" t="s">
         <v>105</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E93" s="19" t="s">
         <v>106</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E94" s="19" t="s">
         <v>107</v>
       </c>
@@ -3497,7 +3503,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f>SUM(F90:F94)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>10</v>
       </c>
@@ -3567,7 +3579,7 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E97" s="19" t="s">
         <v>110</v>
       </c>
@@ -3594,7 +3606,7 @@
         <v>1393.84</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E98" s="19" t="s">
         <v>111</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E99" s="19" t="s">
         <v>112</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E100" s="19" t="s">
         <v>113</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E101" s="19" t="s">
         <v>114</v>
       </c>
@@ -3686,7 +3698,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f>SUM(F96:F101)</f>
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>11</v>
       </c>
@@ -3755,7 +3773,7 @@
       </c>
       <c r="X103" s="16"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E104" s="19" t="s">
         <v>118</v>
       </c>
@@ -3782,7 +3800,7 @@
         <v>1092.8800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E105" s="19" t="s">
         <v>119</v>
       </c>
@@ -3805,7 +3823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E106" s="19" t="s">
         <v>120</v>
       </c>
@@ -3828,7 +3846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E107" s="19" t="s">
         <v>121</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E108" s="19" t="s">
         <v>122</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E109" s="19" t="s">
         <v>123</v>
       </c>
@@ -3897,7 +3915,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>SUM(F103:F109)</f>
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>13</v>
       </c>
@@ -3967,7 +3991,7 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E112" s="19" t="s">
         <v>126</v>
       </c>
@@ -3994,7 +4018,7 @@
         <v>1741.92</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E113" s="19" t="s">
         <v>67</v>
       </c>
@@ -4017,7 +4041,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E114" s="19" t="s">
         <v>127</v>
       </c>
@@ -4040,7 +4064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E115" s="19" t="s">
         <v>128</v>
       </c>
@@ -4063,7 +4087,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f>SUM(F111:F115)</f>
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>15</v>
       </c>
@@ -4132,7 +4162,7 @@
       </c>
       <c r="X117" s="16"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E118" s="19" t="s">
         <v>67</v>
       </c>
@@ -4159,7 +4189,7 @@
         <v>1295.04</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E119" s="19" t="s">
         <v>130</v>
       </c>
@@ -4182,7 +4212,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E120" s="19" t="s">
         <v>132</v>
       </c>
@@ -4205,7 +4235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E121" s="19" t="s">
         <v>131</v>
       </c>
@@ -4228,7 +4258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E122" s="19" t="s">
         <v>133</v>
       </c>
@@ -4249,6 +4279,12 @@
       </c>
       <c r="K122" s="19">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f>SUM(F117:F122)</f>
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
@@ -4264,17 +4300,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4309,7 +4345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4335,7 +4371,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4371,7 +4407,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>39</v>
       </c>

--- a/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2013-2014/COCOMO Estimations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
   <si>
     <t>PROJ</t>
   </si>
@@ -423,13 +423,67 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>S13b_PTS_RID</t>
+  </si>
+  <si>
+    <t>S13b_FlowerSeeker</t>
+  </si>
+  <si>
+    <t>S13b_Student_Scheduling_System</t>
+  </si>
+  <si>
+    <t>S13b_United_Direct_Marketing</t>
+  </si>
+  <si>
+    <t>S14b_Healthy_Kids_Zone_SurveyApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F13a_Mission_Science_Information_and Data_Management_System </t>
+  </si>
+  <si>
+    <t>F13a_LiveRiot_Video_Editing_System_and_socialNetworking_enhancement</t>
+  </si>
+  <si>
+    <t>F13a_Yanomamo Interactive CDROM</t>
+  </si>
+  <si>
+    <t>F13a_OnlineWedding_Management_System</t>
+  </si>
+  <si>
+    <t>F13a_MedFRS_Device_Diagnostic_Software</t>
+  </si>
+  <si>
+    <t>S14b_ThrdPlace_Social_Networking</t>
+  </si>
+  <si>
+    <t>S14b_Lose4Good.org_Database_Driven_Socially_Connected_Website</t>
+  </si>
+  <si>
+    <t>S14b_Student_Scheduling_Systemb</t>
+  </si>
+  <si>
+    <t>F13a_Surgery_Assist</t>
+  </si>
+  <si>
+    <t>F13a_Spherical_Modeling_Tool</t>
+  </si>
+  <si>
+    <t>S14b_JEP_Online_Platform</t>
+  </si>
+  <si>
+    <t>Effort(PM)</t>
+  </si>
+  <si>
+    <t>Effort(PH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +496,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -511,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -533,6 +593,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,38 +931,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y123"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
-    <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="3" max="5" width="34.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -904,254 +971,266 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>2468</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>8.07</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0.6</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>7.16</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>6.77</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>704.28</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>7.26</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>563.41999999999996</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.2</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>11.18</v>
       </c>
-      <c r="U3">
+      <c r="X3">
         <v>7.78</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>450.74</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>220</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.73</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.4</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>543.41</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.1</v>
       </c>
-      <c r="L4">
-        <f>L3*152</f>
+      <c r="O4">
+        <f>O3*152</f>
         <v>1088.32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>880</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>2.94</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>1.76</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>499.44</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>440</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>0.7</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>1.47</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>1.02</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>431.33</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>840</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>0.42</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>2.8</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>1.18</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>713.31</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1176,37 +1255,48 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="17">
+        <v>7.05</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1072</v>
+      </c>
+      <c r="E17" s="19">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="4">
+      <c r="I17" s="4">
         <v>1500</v>
       </c>
-      <c r="G17" s="4">
+      <c r="J17" s="4">
         <v>0.73</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>1193</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4">
+        <v>1193</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1216,24 +1306,27 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="17">
+      <c r="I18" s="17">
         <v>2000</v>
       </c>
-      <c r="G18" s="17">
+      <c r="J18" s="17">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -1248,24 +1341,27 @@
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-    </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="17">
+      <c r="I19" s="17">
         <v>500</v>
       </c>
-      <c r="G19" s="17">
+      <c r="J19" s="17">
         <v>0.48</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -1280,24 +1376,27 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-    </row>
-    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="19">
+      <c r="I20" s="19">
         <v>1200</v>
       </c>
-      <c r="G20" s="19">
+      <c r="J20" s="19">
         <v>1.56</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -1312,24 +1411,27 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-    </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="19">
+      <c r="I21" s="19">
         <v>200</v>
       </c>
-      <c r="G21" s="19">
+      <c r="J21" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -1344,23 +1446,26 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-    </row>
-    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+    </row>
+    <row r="22" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="19">
-        <f>SUM(F17:F21)</f>
+      <c r="I22" s="19">
+        <f>SUM(I17:I21)</f>
         <v>5400</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1375,18 +1480,21 @@
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-    </row>
-    <row r="23" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+    </row>
+    <row r="23" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -1401,18 +1509,21 @@
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
-    </row>
-    <row r="24" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+    </row>
+    <row r="24" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -1427,200 +1538,209 @@
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>5</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="16">
+      <c r="I25" s="16">
         <v>100</v>
       </c>
-      <c r="G25" s="16">
+      <c r="J25" s="16">
         <v>0.75</v>
       </c>
-      <c r="H25" s="16">
+      <c r="K25" s="16">
         <v>0.3</v>
       </c>
-      <c r="I25" s="16">
+      <c r="L25" s="16">
         <v>0.2</v>
       </c>
-      <c r="J25" s="16">
+      <c r="M25" s="16">
         <v>439.3</v>
       </c>
-      <c r="K25" s="16">
+      <c r="N25" s="16">
         <v>0</v>
       </c>
-      <c r="L25" s="16">
+      <c r="O25" s="16">
         <v>3.8</v>
       </c>
-      <c r="M25" s="16">
+      <c r="P25" s="16">
         <v>4.5</v>
       </c>
-      <c r="N25" s="16">
+      <c r="Q25" s="16">
         <v>465.9</v>
       </c>
-      <c r="O25" s="16">
+      <c r="R25" s="16">
         <v>0.8</v>
       </c>
-      <c r="P25" s="16">
+      <c r="S25" s="16">
         <v>4.8</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="T25" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R25" s="16">
+      <c r="U25" s="16">
         <v>372.8</v>
       </c>
-      <c r="S25" s="16">
+      <c r="V25" s="16">
         <v>1</v>
       </c>
-      <c r="T25" s="16">
+      <c r="W25" s="16">
         <v>6</v>
       </c>
-      <c r="U25" s="16">
+      <c r="X25" s="16">
         <v>5.2</v>
       </c>
-      <c r="V25" s="16">
+      <c r="Y25" s="16">
         <v>298.2</v>
       </c>
-      <c r="W25" s="16">
+      <c r="Z25" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>100</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>0.63</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>0.3</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>0.2</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>525.29999999999995</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="L26" s="13">
-        <f>L25*152</f>
+      <c r="O26" s="13">
+        <f>O25*152</f>
         <v>577.6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
         <v>75</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>315</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>0.68</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>0.7</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>483.3</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
         <v>74</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>420</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>0.78</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>1.3</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>420.4</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
         <v>73</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>420</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>0.99</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>1.3</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>1.3</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>331.9</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="4">
+      <c r="I30" s="4">
         <v>420</v>
       </c>
-      <c r="G30" s="4">
+      <c r="J30" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H30" s="4">
+      <c r="K30" s="4">
         <v>1.3</v>
       </c>
-      <c r="I30" s="4">
+      <c r="L30" s="4">
         <v>1.4</v>
       </c>
-      <c r="J30" s="4">
+      <c r="M30" s="4">
         <v>294.2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="N30" s="4">
         <v>0.3</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -1631,22 +1751,25 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="17">
-        <f>SUM(F25:F30)</f>
+      <c r="I31" s="17">
+        <f>SUM(I25:I30)</f>
         <v>1775</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -1662,8 +1785,11 @@
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
-    </row>
-    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+    </row>
+    <row r="32" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1688,221 +1814,227 @@
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="F33" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33">
+      <c r="H33" s="13"/>
+      <c r="I33">
         <v>630</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>0.42</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>2.1</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>0.9</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>730.4</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>0.1</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>6</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>6.4</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>823.3</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>0.9</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>7.5</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <v>6.9</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>658.7</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>9.4</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>7.4</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>526.9</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>840</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>0.35</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>2.7</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>1</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>880.9</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>0.1</v>
       </c>
-      <c r="L34" s="13">
-        <f>L33*152</f>
+      <c r="O34" s="13">
+        <f>O33*152</f>
         <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
         <v>70</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>550</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>1.8</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>524.6</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
         <v>69</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>525</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>0.47</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>1.7</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>0.8</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>655.1</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
         <v>68</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>1050</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>3.4</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>1049.9000000000001</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
         <v>67</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>330</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>0.35</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>880.9</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="4">
+      <c r="I39" s="4">
         <v>1040</v>
       </c>
-      <c r="G39" s="4">
+      <c r="J39" s="4">
         <v>0.73</v>
       </c>
-      <c r="H39" s="4">
+      <c r="K39" s="4">
         <v>3.4</v>
       </c>
-      <c r="I39" s="4">
+      <c r="L39" s="4">
         <v>2.5</v>
       </c>
-      <c r="J39" s="4">
+      <c r="M39" s="4">
         <v>416.4</v>
       </c>
-      <c r="K39" s="4">
+      <c r="N39" s="4">
         <v>0.4</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -1913,22 +2045,25 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="4">
-        <f>SUM(F33:F39)</f>
+      <c r="I40" s="4">
+        <f>SUM(I33:I39)</f>
         <v>4965</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -1944,15 +2079,18 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1970,15 +2108,18 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1996,23 +2137,35 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D43" s="17">
+        <v>166</v>
+      </c>
+      <c r="E43" s="19">
+        <v>6</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2029,176 +2182,182 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="F44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>65</v>
       </c>
-      <c r="F44">
+      <c r="I44">
         <v>495</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>0.41</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>1.69</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>0.69</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>722.49</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>0.1</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>6.25</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>6.55</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>852.27</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>1</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>7.82</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <v>7.03</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>681.81</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>9.77</v>
       </c>
-      <c r="U44">
+      <c r="X44">
         <v>7.54</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
         <v>545.45000000000005</v>
       </c>
-      <c r="W44">
+      <c r="Z44">
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
         <v>64</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>2300</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>0.37</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>7.85</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>2.89</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>794.74</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>0.4</v>
       </c>
-      <c r="L45" s="13">
-        <f>L44*152</f>
+      <c r="O45" s="13">
+        <f>O44*152</f>
         <v>950</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
         <v>63</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>525</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>0.45</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>1.79</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>0.81</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>644.38</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
         <v>62</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>1680</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>0.52</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>5.74</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>2.97</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>566.28</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="4">
+      <c r="I48" s="4">
         <v>330</v>
       </c>
-      <c r="G48" s="4">
+      <c r="J48" s="4">
         <v>0.41</v>
       </c>
-      <c r="H48" s="4">
+      <c r="K48" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I48" s="4">
+      <c r="L48" s="4">
         <v>0.46</v>
       </c>
-      <c r="J48" s="4">
+      <c r="M48" s="4">
         <v>722.49</v>
       </c>
-      <c r="K48" s="4">
+      <c r="N48" s="4">
         <v>0.1</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -2209,21 +2368,24 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="17">
-        <f>SUM(F44:F48)</f>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
         <v>5330</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -2239,13 +2401,16 @@
       <c r="V49" s="17"/>
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
-    </row>
-    <row r="50" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -2264,176 +2429,182 @@
       <c r="V50" s="17"/>
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+    </row>
+    <row r="51" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="F51" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>60</v>
       </c>
-      <c r="F51">
+      <c r="I51">
         <v>263</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>0.52</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>0.8</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>0.42</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>633</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>0.1</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>3.56</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>5.48</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>391.28</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>0.6</v>
       </c>
-      <c r="P51">
+      <c r="S51">
         <v>4.45</v>
       </c>
-      <c r="Q51">
+      <c r="T51">
         <v>5.88</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>313.02</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>0.8</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>5.56</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>6.31</v>
       </c>
-      <c r="V51">
+      <c r="Y51">
         <v>250.42</v>
       </c>
-      <c r="W51">
+      <c r="Z51">
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
         <v>59</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>360</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>0.89</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>0.97</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>370</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>0.2</v>
       </c>
-      <c r="L52" s="13">
-        <f>L51*152</f>
+      <c r="O52" s="13">
+        <f>O51*152</f>
         <v>541.12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
         <v>58</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>330</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>1.35</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>1</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>1.35</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>244</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
         <v>57</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>385</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>1.32</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>1.17</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>1.53</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>250</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="4">
+      <c r="I55" s="4">
         <v>55</v>
       </c>
-      <c r="G55" s="4">
+      <c r="J55" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H55" s="4">
+      <c r="K55" s="4">
         <v>0.17</v>
       </c>
-      <c r="I55" s="4">
+      <c r="L55" s="4">
         <v>0.18</v>
       </c>
-      <c r="J55" s="4">
+      <c r="M55" s="4">
         <v>303</v>
       </c>
-      <c r="K55" s="4">
+      <c r="N55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -2444,21 +2615,24 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
-    </row>
-    <row r="56" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="17">
-        <f>SUM(F51:F55)</f>
+      <c r="I56" s="17">
+        <f>SUM(I51:I55)</f>
         <v>1393</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -2474,13 +2648,16 @@
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
-    </row>
-    <row r="57" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+    </row>
+    <row r="57" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -2499,90 +2676,96 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+    </row>
+    <row r="58" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="F58" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>55</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>150</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
         <v>54</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
         <v>53</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
         <v>52</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
         <v>51</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
         <v>50</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>408</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="4">
+      <c r="I64" s="4">
         <v>354</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="N64" s="4">
+        <v>0.3</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -2593,21 +2776,24 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
-    </row>
-    <row r="65" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+    </row>
+    <row r="65" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="17">
-        <f>SUM(F58:F64)</f>
+      <c r="I65" s="17">
+        <f>SUM(I58:I64)</f>
         <v>2042</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
@@ -2623,13 +2809,16 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
-    </row>
-    <row r="66" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+    </row>
+    <row r="66" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -2648,13 +2837,16 @@
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
-    </row>
-    <row r="67" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+    </row>
+    <row r="67" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -2673,107 +2865,113 @@
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="F68" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>48</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>1050</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>0.42</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>3.2</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>1.33</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>789.96</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>0.3</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>4.8899999999999997</v>
       </c>
-      <c r="N68">
+      <c r="Q68">
         <v>790.7</v>
       </c>
-      <c r="O68">
+      <c r="R68">
         <v>0.5</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>3.17</v>
       </c>
-      <c r="Q68">
+      <c r="T68">
         <v>5.24</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <v>632.55999999999995</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>0.6</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>3.96</v>
       </c>
-      <c r="U68">
+      <c r="X68">
         <v>5.61</v>
       </c>
-      <c r="V68">
+      <c r="Y68">
         <v>506.05</v>
       </c>
-      <c r="W68">
+      <c r="Z68">
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="4">
+      <c r="I69" s="4">
         <v>954</v>
       </c>
-      <c r="G69" s="4">
+      <c r="J69" s="4">
         <v>0.63</v>
       </c>
-      <c r="H69" s="4">
+      <c r="K69" s="4">
         <v>2.91</v>
       </c>
-      <c r="I69" s="4">
+      <c r="L69" s="4">
         <v>1.84</v>
       </c>
-      <c r="J69" s="4">
+      <c r="M69" s="4">
         <v>518.79</v>
       </c>
-      <c r="K69" s="4">
+      <c r="N69" s="4">
         <v>0.4</v>
       </c>
-      <c r="L69" s="13">
-        <f>L68*152</f>
+      <c r="O69" s="13">
+        <f>O68*152</f>
         <v>384.55999999999995</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -2783,26 +2981,29 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
-    </row>
-    <row r="70" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+    </row>
+    <row r="70" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="4">
-        <f>SUM(F68:F69)</f>
+      <c r="I70" s="4">
+        <f>SUM(I68:I69)</f>
         <v>2004</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -2812,14 +3013,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
-    </row>
-    <row r="71" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+    </row>
+    <row r="71" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="E71" s="17"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -2837,70 +3041,79 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>12</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4">
         <v>54.11</v>
       </c>
-      <c r="M72" s="4">
+      <c r="P72" s="4">
         <v>12.68</v>
       </c>
-      <c r="N72" s="4">
+      <c r="Q72" s="4">
         <v>333.37</v>
       </c>
-      <c r="O72" s="4">
+      <c r="R72" s="4">
         <v>4.3</v>
       </c>
-      <c r="P72" s="4">
+      <c r="S72" s="4">
         <v>67.64</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="T72" s="4">
         <v>13.6</v>
       </c>
-      <c r="R72" s="4">
+      <c r="U72" s="4">
         <v>266.7</v>
       </c>
-      <c r="S72" s="4">
+      <c r="V72" s="4">
         <v>5</v>
       </c>
-      <c r="T72" s="4">
+      <c r="W72" s="4">
         <v>84.55</v>
       </c>
-      <c r="U72" s="4">
+      <c r="X72" s="4">
         <v>14.57</v>
       </c>
-      <c r="V72" s="4">
+      <c r="Y72" s="4">
         <v>213.36</v>
       </c>
-      <c r="W72" s="4">
+      <c r="Z72" s="4">
         <v>5.8</v>
       </c>
-      <c r="X72" s="4"/>
-    </row>
-    <row r="73" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA72" s="4"/>
+    </row>
+    <row r="73" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -2918,24 +3131,27 @@
       <c r="V73" s="17"/>
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
-    </row>
-    <row r="74" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+    </row>
+    <row r="74" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
-      <c r="L74" s="13">
-        <f>L72*152</f>
-        <v>8224.7199999999993</v>
-      </c>
+      <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="O74" s="13">
+        <f>O72*152</f>
+        <v>8224.7199999999993</v>
+      </c>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
@@ -2945,232 +3161,238 @@
       <c r="V74" s="17"/>
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="F75" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>41</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>1428</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>1.17</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>4.67</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>5.46</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>261.57</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>0.7</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>9.91</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>7.58</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>327.68</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>1.3</v>
       </c>
-      <c r="P75">
+      <c r="S75">
         <v>12.39</v>
       </c>
-      <c r="Q75">
+      <c r="T75">
         <v>8.1300000000000008</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>262.14</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.5</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>15.48</v>
       </c>
-      <c r="U75">
+      <c r="X75">
         <v>8.73</v>
       </c>
-      <c r="V75">
+      <c r="Y75">
         <v>209.71</v>
       </c>
-      <c r="W75">
+      <c r="Z75">
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
         <v>42</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>406</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>1.37</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>1.33</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>1.82</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>223.57</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>0.2</v>
       </c>
-      <c r="L76" s="13">
-        <f>L75*152</f>
+      <c r="O76" s="13">
+        <f>O75*152</f>
         <v>1506.32</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
         <v>43</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>203</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>1.2</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>0.66</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <v>0.79</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>255.69</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
         <v>44</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>304</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>1.17</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>0.99</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>261.57</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
         <v>45</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>101</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>1.2</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>0.33</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>0.4</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>255.69</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
         <v>46</v>
       </c>
-      <c r="F80">
+      <c r="I80">
         <v>805</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>1.05</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>2.63</v>
       </c>
-      <c r="I80">
+      <c r="L80">
         <v>2.76</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>291.68</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>2</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="G82" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="H82" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="16">
+      <c r="I82" s="16">
         <v>3200</v>
       </c>
-      <c r="G82" s="16">
+      <c r="J82" s="16">
         <v>0.24</v>
       </c>
-      <c r="H82" s="16">
+      <c r="K82" s="16">
         <v>10.63</v>
       </c>
-      <c r="I82" s="16">
+      <c r="L82" s="16">
         <v>2.52</v>
       </c>
-      <c r="J82" s="16">
+      <c r="M82" s="16">
         <v>12</v>
       </c>
-      <c r="K82" s="16">
+      <c r="N82" s="16">
         <v>0.4</v>
       </c>
-      <c r="L82" s="16">
+      <c r="O82" s="16">
         <v>1328</v>
       </c>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
@@ -3180,1110 +3402,1149 @@
       <c r="V82" s="16"/>
       <c r="W82" s="16"/>
       <c r="X82" s="16"/>
-    </row>
-    <row r="83" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="19" t="s">
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+    </row>
+    <row r="83" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="19">
+      <c r="I83" s="19">
         <v>3000</v>
       </c>
-      <c r="G83" s="19">
+      <c r="J83" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H83" s="19">
+      <c r="K83" s="19">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I83" s="19">
+      <c r="L83" s="19">
         <v>2.89</v>
       </c>
-      <c r="J83" s="19">
+      <c r="M83" s="19">
         <v>10</v>
       </c>
-      <c r="K83" s="19">
+      <c r="N83" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="19" t="s">
+    <row r="84" spans="1:28" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F84" s="19">
-        <f>SUM(F82:F83)</f>
+      <c r="I84" s="19">
+        <f>SUM(I82:I83)</f>
         <v>6200</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
-    </row>
-    <row r="85" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+    </row>
+    <row r="85" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>7</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="H86" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F86" s="16">
+      <c r="I86" s="16">
         <v>220</v>
       </c>
-      <c r="G86" s="16">
+      <c r="J86" s="16">
         <v>0.63</v>
       </c>
-      <c r="H86" s="16">
+      <c r="K86" s="16">
         <v>0.72</v>
       </c>
-      <c r="I86" s="16">
+      <c r="L86" s="16">
         <v>0.45</v>
       </c>
-      <c r="J86" s="16">
+      <c r="M86" s="16">
         <v>485</v>
       </c>
-      <c r="K86" s="16">
+      <c r="N86" s="16">
         <v>0.1</v>
       </c>
-      <c r="L86" s="16">
+      <c r="O86" s="16">
         <v>6.88</v>
       </c>
-      <c r="M86" s="16">
+      <c r="P86" s="16">
         <v>6.72</v>
       </c>
-      <c r="N86" s="16">
+      <c r="Q86" s="16">
         <v>551.77</v>
       </c>
-      <c r="O86" s="16">
+      <c r="R86" s="16">
         <v>1</v>
       </c>
-      <c r="P86" s="16">
+      <c r="S86" s="16">
         <v>8.6</v>
       </c>
-      <c r="Q86" s="16">
+      <c r="T86" s="16">
         <v>7.21</v>
       </c>
-      <c r="R86" s="16">
+      <c r="U86" s="16">
         <v>441.41</v>
       </c>
-      <c r="S86" s="16">
+      <c r="V86" s="16">
         <v>1.2</v>
       </c>
-      <c r="T86" s="16">
+      <c r="W86" s="16">
         <v>10.75</v>
       </c>
-      <c r="U86" s="16">
+      <c r="X86" s="16">
         <v>7.73</v>
       </c>
-      <c r="V86" s="16">
+      <c r="Y86" s="16">
         <v>353.3</v>
       </c>
-      <c r="W86" s="16">
+      <c r="Z86" s="16">
         <v>1.4</v>
       </c>
-      <c r="X86" s="16"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E87" s="19" t="s">
+      <c r="AA86" s="16"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H87" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F87" s="19">
+      <c r="I87" s="19">
         <v>2750</v>
       </c>
-      <c r="G87" s="19">
+      <c r="J87" s="19">
         <v>0.63</v>
       </c>
-      <c r="H87" s="19">
+      <c r="K87" s="19">
         <v>8.98</v>
       </c>
-      <c r="I87" s="19">
+      <c r="L87" s="19">
         <v>5.63</v>
       </c>
-      <c r="J87" s="19">
+      <c r="M87" s="19">
         <v>488</v>
       </c>
-      <c r="K87" s="19">
+      <c r="N87" s="19">
         <v>0.8</v>
       </c>
-      <c r="L87" s="13">
-        <f>L86*152</f>
+      <c r="O87" s="13">
+        <f>O86*152</f>
         <v>1045.76</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E88" s="19" t="s">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H88" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F88" s="19">
+      <c r="I88" s="19">
         <v>825</v>
       </c>
-      <c r="G88" s="19">
+      <c r="J88" s="19">
         <v>0.94</v>
       </c>
-      <c r="H88" s="19">
+      <c r="K88" s="19">
         <v>2.69</v>
       </c>
-      <c r="I88" s="19">
+      <c r="L88" s="19">
         <v>2.52</v>
       </c>
-      <c r="J88" s="19">
+      <c r="M88" s="19">
         <v>327</v>
       </c>
-      <c r="K88" s="19">
+      <c r="N88" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F89">
-        <f>SUM(F86:F88)</f>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f>SUM(I86:I88)</f>
         <v>3795</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>8</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="H90" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="16">
+      <c r="I90" s="16">
         <v>350</v>
       </c>
-      <c r="G90" s="16">
+      <c r="J90" s="16">
         <v>1.39</v>
       </c>
-      <c r="H90" s="16">
+      <c r="K90" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I90" s="16">
+      <c r="L90" s="16">
         <v>1.6</v>
       </c>
-      <c r="J90" s="16">
+      <c r="M90" s="16">
         <v>218</v>
       </c>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16">
+      <c r="N90" s="16"/>
+      <c r="O90" s="16">
         <v>11.91</v>
       </c>
-      <c r="M90" s="16">
+      <c r="P90" s="16">
         <v>8.08</v>
       </c>
-      <c r="N90" s="16">
+      <c r="Q90" s="16">
         <v>251.87</v>
       </c>
-      <c r="O90" s="16">
+      <c r="R90" s="16">
         <v>1.5</v>
       </c>
-      <c r="P90" s="16">
+      <c r="S90" s="16">
         <v>14.89</v>
       </c>
-      <c r="Q90" s="16">
+      <c r="T90" s="16">
         <v>8.67</v>
       </c>
-      <c r="R90" s="16">
+      <c r="U90" s="16">
         <v>201.5</v>
       </c>
-      <c r="S90" s="16">
+      <c r="V90" s="16">
         <v>1.7</v>
       </c>
-      <c r="T90" s="16">
+      <c r="W90" s="16">
         <v>18.61</v>
       </c>
-      <c r="U90" s="16">
+      <c r="X90" s="16">
         <v>9.31</v>
       </c>
-      <c r="V90" s="16">
+      <c r="Y90" s="16">
         <v>161.19999999999999</v>
       </c>
-      <c r="W90" s="16">
+      <c r="Z90" s="16">
         <v>2</v>
       </c>
-      <c r="X90" s="16"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E91" s="19" t="s">
+      <c r="AA90" s="16"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H91" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F91" s="19">
+      <c r="I91" s="19">
         <v>1100</v>
       </c>
-      <c r="G91" s="19">
+      <c r="J91" s="19">
         <v>1.94</v>
       </c>
-      <c r="H91" s="19">
+      <c r="K91" s="19">
         <v>3.62</v>
       </c>
-      <c r="I91" s="19">
+      <c r="L91" s="19">
         <v>7.04</v>
       </c>
-      <c r="J91" s="19">
+      <c r="M91" s="19">
         <v>156</v>
       </c>
-      <c r="L91" s="13">
-        <f>L90*152</f>
+      <c r="O91" s="13">
+        <f>O90*152</f>
         <v>1810.32</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E92" s="19" t="s">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H92" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="19">
+      <c r="I92" s="19">
         <v>500</v>
       </c>
-      <c r="G92" s="19">
+      <c r="J92" s="19">
         <v>1.39</v>
       </c>
-      <c r="H92" s="19">
+      <c r="K92" s="19">
         <v>1.64</v>
       </c>
-      <c r="I92" s="19">
+      <c r="L92" s="19">
         <v>2.29</v>
       </c>
-      <c r="J92" s="19">
+      <c r="M92" s="19">
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E93" s="19" t="s">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H93" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="19">
+      <c r="I93" s="19">
         <v>350</v>
       </c>
-      <c r="G93" s="19">
+      <c r="J93" s="19">
         <v>1.26</v>
       </c>
-      <c r="H93" s="19">
+      <c r="K93" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I93" s="19">
+      <c r="L93" s="19">
         <v>1.45</v>
       </c>
-      <c r="J93" s="19">
+      <c r="M93" s="19">
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="19" t="s">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H94" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="19">
+      <c r="I94" s="19">
         <v>700</v>
       </c>
-      <c r="G94" s="19">
+      <c r="J94" s="19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H94" s="19">
+      <c r="K94" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I94" s="19">
+      <c r="L94" s="19">
         <v>2.52</v>
       </c>
-      <c r="J94" s="19">
+      <c r="M94" s="19">
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <f>SUM(F90:F94)</f>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f>SUM(I90:I94)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>10</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="H96" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="16">
+      <c r="I96" s="16">
         <v>69</v>
       </c>
-      <c r="G96" s="16">
+      <c r="J96" s="16">
         <v>0.17</v>
       </c>
-      <c r="H96" s="16">
+      <c r="K96" s="16">
         <v>0.24</v>
       </c>
-      <c r="I96" s="16">
+      <c r="L96" s="16">
         <v>0.04</v>
       </c>
-      <c r="J96" s="16">
+      <c r="M96" s="16">
         <v>166</v>
       </c>
-      <c r="K96" s="16">
+      <c r="N96" s="16">
         <v>0</v>
       </c>
-      <c r="L96" s="16">
+      <c r="O96" s="16">
         <v>9.17</v>
       </c>
-      <c r="M96" s="16">
+      <c r="P96" s="16">
         <v>7.38</v>
       </c>
-      <c r="N96" s="16">
+      <c r="Q96" s="16">
         <v>847.76</v>
       </c>
-      <c r="O96" s="16">
+      <c r="R96" s="16">
         <v>1.2</v>
       </c>
-      <c r="P96" s="16">
+      <c r="S96" s="16">
         <v>11.47</v>
       </c>
-      <c r="Q96" s="16">
+      <c r="T96" s="16">
         <v>7.92</v>
       </c>
-      <c r="R96" s="16">
+      <c r="U96" s="16">
         <v>678.21</v>
       </c>
-      <c r="S96" s="16">
+      <c r="V96" s="16">
         <v>1.4</v>
       </c>
-      <c r="T96" s="16">
+      <c r="W96" s="16">
         <v>14.33</v>
       </c>
-      <c r="U96" s="16">
+      <c r="X96" s="16">
         <v>8.5</v>
       </c>
-      <c r="V96" s="16">
+      <c r="Y96" s="16">
         <v>542.55999999999995</v>
       </c>
-      <c r="W96" s="16">
+      <c r="Z96" s="16">
         <v>1.7</v>
       </c>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E97" s="19" t="s">
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="16"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H97" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="19">
+      <c r="I97" s="19">
         <v>861</v>
       </c>
-      <c r="G97" s="19">
+      <c r="J97" s="19">
         <v>0.15</v>
       </c>
-      <c r="H97" s="19">
+      <c r="K97" s="19">
         <v>3.02</v>
       </c>
-      <c r="I97" s="19">
+      <c r="L97" s="19">
         <v>0.45</v>
       </c>
-      <c r="J97" s="19">
+      <c r="M97" s="19">
         <v>189</v>
       </c>
-      <c r="K97" s="19">
+      <c r="N97" s="19">
         <v>0.1</v>
       </c>
-      <c r="L97" s="13">
-        <f>L96*152</f>
+      <c r="O97" s="13">
+        <f>O96*152</f>
         <v>1393.84</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E98" s="19" t="s">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H98" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F98" s="19">
+      <c r="I98" s="19">
         <v>630</v>
       </c>
-      <c r="G98" s="19">
+      <c r="J98" s="19">
         <v>0.19</v>
       </c>
-      <c r="H98" s="19">
+      <c r="K98" s="19">
         <v>2.21</v>
       </c>
-      <c r="I98" s="19">
+      <c r="L98" s="19">
         <v>0.41</v>
       </c>
-      <c r="J98" s="19">
+      <c r="M98" s="19">
         <v>153</v>
       </c>
-      <c r="K98" s="19">
+      <c r="N98" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E99" s="19" t="s">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H99" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F99" s="19">
+      <c r="I99" s="19">
         <v>1725</v>
       </c>
-      <c r="G99" s="19">
+      <c r="J99" s="19">
         <v>0.77</v>
       </c>
-      <c r="H99" s="19">
+      <c r="K99" s="19">
         <v>6.05</v>
       </c>
-      <c r="I99" s="19">
+      <c r="L99" s="19">
         <v>4.68</v>
       </c>
-      <c r="J99" s="19">
+      <c r="M99" s="19">
         <v>368.58</v>
       </c>
-      <c r="K99" s="19">
+      <c r="N99" s="19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E100" s="19" t="s">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H100" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F100" s="19">
+      <c r="I100" s="19">
         <v>2136</v>
       </c>
-      <c r="G100" s="19">
+      <c r="J100" s="19">
         <v>0.37</v>
       </c>
-      <c r="H100" s="19">
+      <c r="K100" s="19">
         <v>7.5</v>
       </c>
-      <c r="I100" s="19">
+      <c r="L100" s="19">
         <v>2.8</v>
       </c>
-      <c r="J100" s="19">
+      <c r="M100" s="19">
         <v>763.74</v>
       </c>
-      <c r="K100" s="19">
+      <c r="N100" s="19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E101" s="19" t="s">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H101" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F101" s="19">
+      <c r="I101" s="19">
         <v>2355</v>
       </c>
-      <c r="G101" s="19">
+      <c r="J101" s="19">
         <v>0.37</v>
       </c>
-      <c r="H101" s="19">
+      <c r="K101" s="19">
         <v>8.27</v>
       </c>
-      <c r="I101" s="19">
+      <c r="L101" s="19">
         <v>3.08</v>
       </c>
-      <c r="J101" s="19">
+      <c r="M101" s="19">
         <v>763.74</v>
       </c>
-      <c r="K101" s="19">
+      <c r="N101" s="19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F102">
-        <f>SUM(F96:F101)</f>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f>SUM(I96:I101)</f>
         <v>7776</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>11</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="H103" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F103" s="16">
+      <c r="I103" s="16">
         <v>525</v>
       </c>
-      <c r="G103" s="16">
+      <c r="J103" s="16">
         <v>0.7</v>
       </c>
-      <c r="H103" s="16">
+      <c r="K103" s="16">
         <v>1.71</v>
       </c>
-      <c r="I103" s="16">
+      <c r="L103" s="16">
         <v>1.2</v>
       </c>
-      <c r="J103" s="16">
+      <c r="M103" s="16">
         <v>436.25</v>
       </c>
-      <c r="K103" s="16">
+      <c r="N103" s="16">
         <v>0.2</v>
       </c>
-      <c r="L103" s="16">
+      <c r="O103" s="16">
         <v>7.19</v>
       </c>
-      <c r="M103" s="16">
+      <c r="P103" s="16">
         <v>6.8</v>
       </c>
-      <c r="N103" s="16">
+      <c r="Q103" s="16">
         <v>569.52</v>
       </c>
-      <c r="O103" s="16">
+      <c r="R103" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P103" s="16">
+      <c r="S103" s="16">
         <v>8.99</v>
       </c>
-      <c r="Q103" s="16">
+      <c r="T103" s="16">
         <v>7.3</v>
       </c>
-      <c r="R103" s="16">
+      <c r="U103" s="16">
         <v>455.62</v>
       </c>
-      <c r="S103" s="16">
+      <c r="V103" s="16">
         <v>1.2</v>
       </c>
-      <c r="T103" s="16">
+      <c r="W103" s="16">
         <v>11.23</v>
       </c>
-      <c r="U103" s="16">
+      <c r="X103" s="16">
         <v>7.82</v>
       </c>
-      <c r="V103" s="16">
+      <c r="Y103" s="16">
         <v>364.49</v>
       </c>
-      <c r="W103" s="16">
+      <c r="Z103" s="16">
         <v>1.4</v>
       </c>
-      <c r="X103" s="16"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E104" s="19" t="s">
+      <c r="AA103" s="16"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H104" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F104" s="19">
+      <c r="I104" s="19">
         <v>550</v>
       </c>
-      <c r="G104" s="19">
+      <c r="J104" s="19">
         <v>0.64</v>
       </c>
-      <c r="H104" s="19">
+      <c r="K104" s="19">
         <v>1.8</v>
       </c>
-      <c r="I104" s="19">
+      <c r="L104" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J104" s="19">
+      <c r="M104" s="19">
         <v>479.88</v>
       </c>
-      <c r="K104" s="19">
+      <c r="N104" s="19">
         <v>0.2</v>
       </c>
-      <c r="L104" s="13">
-        <f>L103*152</f>
+      <c r="O104" s="13">
+        <f>O103*152</f>
         <v>1092.8800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E105" s="19" t="s">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H105" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F105" s="19">
+      <c r="I105" s="19">
         <v>420</v>
       </c>
-      <c r="G105" s="19">
+      <c r="J105" s="19">
         <v>0.7</v>
       </c>
-      <c r="H105" s="19">
+      <c r="K105" s="19">
         <v>1.37</v>
       </c>
-      <c r="I105" s="19">
+      <c r="L105" s="19">
         <v>0.96</v>
       </c>
-      <c r="J105" s="19">
+      <c r="M105" s="19">
         <v>436.25</v>
       </c>
-      <c r="K105" s="19">
+      <c r="N105" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E106" s="19" t="s">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H106" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F106" s="19">
+      <c r="I106" s="19">
         <v>840</v>
       </c>
-      <c r="G106" s="19">
+      <c r="J106" s="19">
         <v>0.7</v>
       </c>
-      <c r="H106" s="19">
+      <c r="K106" s="19">
         <v>2.74</v>
       </c>
-      <c r="I106" s="19">
+      <c r="L106" s="19">
         <v>1.93</v>
       </c>
-      <c r="J106" s="19">
+      <c r="M106" s="19">
         <v>436.25</v>
       </c>
-      <c r="K106" s="19">
+      <c r="N106" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E107" s="19" t="s">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H107" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F107" s="19">
+      <c r="I107" s="19">
         <v>330</v>
       </c>
-      <c r="G107" s="19">
+      <c r="J107" s="19">
         <v>0.7</v>
       </c>
-      <c r="H107" s="19">
+      <c r="K107" s="19">
         <v>1.08</v>
       </c>
-      <c r="I107" s="19">
+      <c r="L107" s="19">
         <v>0.76</v>
       </c>
-      <c r="J107" s="19">
+      <c r="M107" s="19">
         <v>436.25</v>
       </c>
-      <c r="K107" s="19">
+      <c r="N107" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E108" s="19" t="s">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H108" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F108" s="19">
+      <c r="I108" s="19">
         <v>550</v>
       </c>
-      <c r="G108" s="19">
+      <c r="J108" s="19">
         <v>0.59</v>
       </c>
-      <c r="H108" s="19">
+      <c r="K108" s="19">
         <v>1.8</v>
       </c>
-      <c r="I108" s="19">
+      <c r="L108" s="19">
         <v>1.05</v>
       </c>
-      <c r="J108" s="19">
+      <c r="M108" s="19">
         <v>521.61</v>
       </c>
-      <c r="K108" s="19">
+      <c r="N108" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E109" s="19" t="s">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H109" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F109" s="19">
+      <c r="I109" s="19">
         <v>880</v>
       </c>
-      <c r="G109" s="19">
+      <c r="J109" s="19">
         <v>0.67</v>
       </c>
-      <c r="H109" s="19">
+      <c r="K109" s="19">
         <v>2.87</v>
       </c>
-      <c r="I109" s="19">
+      <c r="L109" s="19">
         <v>1.94</v>
       </c>
-      <c r="J109" s="19">
+      <c r="M109" s="19">
         <v>453.8</v>
       </c>
-      <c r="K109" s="19">
+      <c r="N109" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F110">
-        <f>SUM(F103:F109)</f>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f>SUM(I103:I109)</f>
         <v>4095</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>13</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="H111" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F111" s="16">
+      <c r="I111" s="16">
         <v>308</v>
       </c>
-      <c r="G111" s="16">
+      <c r="J111" s="16">
         <v>1.08</v>
       </c>
-      <c r="H111" s="16">
+      <c r="K111" s="16">
         <v>0.96</v>
       </c>
-      <c r="I111" s="16">
+      <c r="L111" s="16">
         <v>1.04</v>
       </c>
-      <c r="J111" s="16">
+      <c r="M111" s="16">
         <v>294</v>
       </c>
-      <c r="K111" s="16">
+      <c r="N111" s="16">
         <v>0.2</v>
       </c>
-      <c r="L111" s="16">
+      <c r="O111" s="16">
         <v>11.46</v>
       </c>
-      <c r="M111" s="16">
+      <c r="P111" s="16">
         <v>5.23</v>
       </c>
-      <c r="N111" s="16">
+      <c r="Q111" s="16">
         <v>305.94</v>
       </c>
-      <c r="O111" s="16">
+      <c r="R111" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P111" s="16">
+      <c r="S111" s="16">
         <v>14.33</v>
       </c>
-      <c r="Q111" s="16">
+      <c r="T111" s="16">
         <v>5.6</v>
       </c>
-      <c r="R111" s="16">
+      <c r="U111" s="16">
         <v>244.75</v>
       </c>
-      <c r="S111" s="16">
+      <c r="V111" s="16">
         <v>2.6</v>
       </c>
-      <c r="T111" s="16">
+      <c r="W111" s="16">
         <v>17.91</v>
       </c>
-      <c r="U111" s="16">
+      <c r="X111" s="16">
         <v>6</v>
       </c>
-      <c r="V111" s="16">
+      <c r="Y111" s="16">
         <v>195.8</v>
       </c>
-      <c r="W111" s="16">
+      <c r="Z111" s="16">
         <v>3</v>
       </c>
-      <c r="X111" s="16"/>
-      <c r="Y111" s="16"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E112" s="19" t="s">
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="16"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H112" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="19">
+      <c r="I112" s="19">
         <v>1188</v>
       </c>
-      <c r="G112" s="19">
+      <c r="J112" s="19">
         <v>1.45</v>
       </c>
-      <c r="H112" s="19">
+      <c r="K112" s="19">
         <v>3.72</v>
       </c>
-      <c r="I112" s="19">
+      <c r="L112" s="19">
         <v>5.4</v>
       </c>
-      <c r="J112" s="19">
+      <c r="M112" s="19">
         <v>220</v>
       </c>
-      <c r="K112" s="19">
+      <c r="N112" s="19">
         <v>1</v>
       </c>
-      <c r="L112" s="13">
-        <f>L111*152</f>
+      <c r="O112" s="13">
+        <f>O111*152</f>
         <v>1741.92</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E113" s="19" t="s">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H113" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="19">
+      <c r="I113" s="19">
         <v>420</v>
       </c>
-      <c r="G113" s="19">
+      <c r="J113" s="19">
         <v>0.94</v>
       </c>
-      <c r="H113" s="19">
+      <c r="K113" s="19">
         <v>1.32</v>
       </c>
-      <c r="I113" s="19">
+      <c r="L113" s="19">
         <v>1.24</v>
       </c>
-      <c r="J113" s="19">
+      <c r="M113" s="19">
         <v>338</v>
       </c>
-      <c r="K113" s="19">
+      <c r="N113" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E114" s="19" t="s">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H114" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F114" s="19">
+      <c r="I114" s="19">
         <v>315</v>
       </c>
-      <c r="G114" s="19">
+      <c r="J114" s="19">
         <v>0.94</v>
       </c>
-      <c r="H114" s="19">
+      <c r="K114" s="19">
         <v>0.99</v>
       </c>
-      <c r="I114" s="19">
+      <c r="L114" s="19">
         <v>0.93</v>
       </c>
-      <c r="J114" s="19">
+      <c r="M114" s="19">
         <v>338</v>
       </c>
-      <c r="K114" s="19">
+      <c r="N114" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E115" s="19" t="s">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H115" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F115" s="19">
+      <c r="I115" s="19">
         <v>1276</v>
       </c>
-      <c r="G115" s="19">
+      <c r="J115" s="19">
         <v>1.43</v>
       </c>
-      <c r="H115" s="19">
+      <c r="K115" s="19">
         <v>4</v>
       </c>
-      <c r="I115" s="19">
+      <c r="L115" s="19">
         <v>5.71</v>
       </c>
-      <c r="J115" s="19">
+      <c r="M115" s="19">
         <v>223</v>
       </c>
-      <c r="K115" s="19">
+      <c r="N115" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F116">
-        <f>SUM(F111:F115)</f>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f>SUM(I111:I115)</f>
         <v>3507</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>15</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G117" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="H117" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="16">
+      <c r="I117" s="16">
         <v>1000</v>
       </c>
-      <c r="G117" s="16">
+      <c r="J117" s="16">
         <v>0.97</v>
       </c>
-      <c r="H117" s="16">
+      <c r="K117" s="16">
         <v>3.37</v>
       </c>
-      <c r="I117" s="16">
+      <c r="L117" s="16">
         <v>3.27</v>
       </c>
-      <c r="J117" s="16">
+      <c r="M117" s="16">
         <v>305.76</v>
       </c>
-      <c r="K117" s="16">
+      <c r="N117" s="16">
         <v>0.4</v>
       </c>
-      <c r="L117" s="16">
+      <c r="O117" s="16">
         <v>8.52</v>
       </c>
-      <c r="M117" s="16">
+      <c r="P117" s="16">
         <v>7.27</v>
       </c>
-      <c r="N117" s="16">
+      <c r="Q117" s="16">
         <v>422.36</v>
       </c>
-      <c r="O117" s="16">
+      <c r="R117" s="16">
         <v>1.2</v>
       </c>
-      <c r="P117" s="16">
+      <c r="S117" s="16">
         <v>10.65</v>
       </c>
-      <c r="Q117" s="16">
+      <c r="T117" s="16">
         <v>7.81</v>
       </c>
-      <c r="R117" s="16">
+      <c r="U117" s="16">
         <v>337.89</v>
       </c>
-      <c r="S117" s="16">
+      <c r="V117" s="16">
         <v>1.4</v>
       </c>
-      <c r="T117" s="16">
+      <c r="W117" s="16">
         <v>13.32</v>
       </c>
-      <c r="U117" s="16">
+      <c r="X117" s="16">
         <v>8.39</v>
       </c>
-      <c r="V117" s="16">
+      <c r="Y117" s="16">
         <v>270.31</v>
       </c>
-      <c r="W117" s="16">
+      <c r="Z117" s="16">
         <v>1.6</v>
       </c>
-      <c r="X117" s="16"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E118" s="19" t="s">
+      <c r="AA117" s="16"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H118" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="19">
+      <c r="I118" s="19">
         <v>400</v>
       </c>
-      <c r="G118" s="19">
+      <c r="J118" s="19">
         <v>0.91</v>
       </c>
-      <c r="H118" s="19">
+      <c r="K118" s="19">
         <v>1.35</v>
       </c>
-      <c r="I118" s="19">
+      <c r="L118" s="19">
         <v>1.23</v>
       </c>
-      <c r="J118" s="19">
+      <c r="M118" s="19">
         <v>325.22000000000003</v>
       </c>
-      <c r="K118" s="19">
+      <c r="N118" s="19">
         <v>0.3</v>
       </c>
-      <c r="L118" s="13">
-        <f>L117*152</f>
+      <c r="O118" s="13">
+        <f>O117*152</f>
         <v>1295.04</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E119" s="19" t="s">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H119" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F119" s="19">
+      <c r="I119" s="19">
         <v>500</v>
       </c>
-      <c r="G119" s="19">
+      <c r="J119" s="19">
         <v>1.23</v>
       </c>
-      <c r="H119" s="19">
+      <c r="K119" s="19">
         <v>1.69</v>
       </c>
-      <c r="I119" s="19">
+      <c r="L119" s="19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J119" s="19">
+      <c r="M119" s="19">
         <v>241.39</v>
       </c>
-      <c r="K119" s="19">
+      <c r="N119" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E120" s="19" t="s">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H120" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F120" s="19">
+      <c r="I120" s="19">
         <v>400</v>
       </c>
-      <c r="G120" s="19">
+      <c r="J120" s="19">
         <v>0.66</v>
       </c>
-      <c r="H120" s="19">
+      <c r="K120" s="19">
         <v>1.35</v>
       </c>
-      <c r="I120" s="19">
+      <c r="L120" s="19">
         <v>0.89</v>
       </c>
-      <c r="J120" s="19">
+      <c r="M120" s="19">
         <v>446.95</v>
       </c>
-      <c r="K120" s="19">
+      <c r="N120" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E121" s="19" t="s">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H121" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F121" s="19">
+      <c r="I121" s="19">
         <v>700</v>
       </c>
-      <c r="G121" s="19">
+      <c r="J121" s="19">
         <v>0.66</v>
       </c>
-      <c r="H121" s="19">
+      <c r="K121" s="19">
         <v>2.36</v>
       </c>
-      <c r="I121" s="19">
+      <c r="L121" s="19">
         <v>1.57</v>
       </c>
-      <c r="J121" s="19">
+      <c r="M121" s="19">
         <v>446.95</v>
       </c>
-      <c r="K121" s="19">
+      <c r="N121" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E122" s="19" t="s">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H122" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="19">
+      <c r="I122" s="19">
         <v>600</v>
       </c>
-      <c r="G122" s="19">
+      <c r="J122" s="19">
         <v>0.8</v>
       </c>
-      <c r="H122" s="19">
+      <c r="K122" s="19">
         <v>2.02</v>
       </c>
-      <c r="I122" s="19">
+      <c r="L122" s="19">
         <v>1.62</v>
       </c>
-      <c r="J122" s="19">
+      <c r="M122" s="19">
         <v>370.07</v>
       </c>
-      <c r="K122" s="19">
+      <c r="N122" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F123">
-        <f>SUM(F117:F122)</f>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f>SUM(I117:I122)</f>
         <v>3600</v>
       </c>
     </row>
